--- a/data/class.xlsx
+++ b/data/class.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV56"/>
+  <dimension ref="A1:AV102"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -554,7 +554,7 @@
         <v>002466</v>
       </c>
       <c r="B2" t="str">
-        <v>Alishba Fatima</v>
+        <v xml:space="preserve">alisha fatima </v>
       </c>
       <c r="C2" t="str">
         <v>Asghar Abbas</v>
@@ -563,7 +563,7 @@
         <v>P.G</v>
       </c>
       <c r="E2" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F2" t="str">
         <v/>
@@ -575,85 +575,43 @@
         <v>1-01-2025</v>
       </c>
       <c r="I2" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J2" t="str">
-        <v>1st</v>
+        <v>2025-26</v>
       </c>
       <c r="K2" t="str">
         <v>Good</v>
       </c>
-      <c r="L2" t="str">
-        <v>1</v>
-      </c>
-      <c r="M2" t="str">
-        <v>2</v>
-      </c>
-      <c r="N2" t="str">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="str">
-        <v/>
-      </c>
-      <c r="Q2" t="str">
-        <v/>
-      </c>
-      <c r="S2" t="str">
-        <v/>
-      </c>
-      <c r="T2" t="str">
-        <v/>
-      </c>
-      <c r="U2" t="str">
-        <v/>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>26</v>
+      </c>
+      <c r="N2">
+        <v>23</v>
       </c>
       <c r="V2">
-        <v>20</v>
-      </c>
-      <c r="W2" t="str">
-        <v/>
-      </c>
-      <c r="X2" t="str">
-        <v/>
-      </c>
-      <c r="Y2" t="str">
-        <v/>
-      </c>
-      <c r="Z2" t="str">
-        <v/>
-      </c>
-      <c r="AA2" t="str">
-        <v/>
-      </c>
-      <c r="AB2" t="str">
-        <v/>
-      </c>
-      <c r="AC2" t="str">
-        <v/>
-      </c>
-      <c r="AD2" t="str">
-        <v>20</v>
-      </c>
-      <c r="AE2" t="str">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="AD2">
+        <v>17</v>
+      </c>
+      <c r="AE2">
+        <v>16</v>
       </c>
       <c r="AF2" t="str">
-        <v>20</v>
-      </c>
-      <c r="AG2" t="str">
-        <v>20</v>
+        <v>A</v>
+      </c>
+      <c r="AG2">
+        <v>17</v>
       </c>
       <c r="AI2" t="str">
-        <v>104</v>
+        <v/>
       </c>
       <c r="AJ2" t="str">
-        <v>52.00</v>
+        <v/>
       </c>
       <c r="AK2" t="str">
-        <v>F</v>
+        <v/>
       </c>
       <c r="AL2" t="str">
         <v/>
@@ -703,7 +661,7 @@
         <v>P.G</v>
       </c>
       <c r="E3" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F3" t="str">
         <v/>
@@ -715,76 +673,34 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J3" t="str">
-        <v>1st</v>
+        <v>2025-26</v>
       </c>
       <c r="K3" t="str">
         <v>Keep it up</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3" t="str">
-        <v/>
-      </c>
-      <c r="P3" t="str">
-        <v/>
-      </c>
-      <c r="Q3" t="str">
-        <v/>
-      </c>
-      <c r="S3" t="str">
-        <v/>
-      </c>
-      <c r="T3" t="str">
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <v/>
+        <v>28</v>
       </c>
       <c r="V3">
-        <v>20</v>
-      </c>
-      <c r="W3" t="str">
-        <v/>
-      </c>
-      <c r="X3" t="str">
-        <v/>
-      </c>
-      <c r="Y3" t="str">
-        <v/>
-      </c>
-      <c r="Z3" t="str">
-        <v/>
-      </c>
-      <c r="AA3" t="str">
-        <v/>
-      </c>
-      <c r="AB3" t="str">
-        <v/>
-      </c>
-      <c r="AC3" t="str">
-        <v/>
-      </c>
-      <c r="AD3" t="str">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="str">
-        <v>10</v>
-      </c>
-      <c r="AF3" t="str">
-        <v>10</v>
-      </c>
-      <c r="AG3" t="str">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="AD3">
+        <v>18</v>
+      </c>
+      <c r="AE3">
+        <v>18</v>
+      </c>
+      <c r="AF3">
+        <v>16</v>
+      </c>
+      <c r="AG3">
+        <v>18</v>
       </c>
       <c r="AI3" t="str">
         <v>200</v>
@@ -843,7 +759,7 @@
         <v>P.G</v>
       </c>
       <c r="E4" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F4" t="str">
         <v/>
@@ -855,76 +771,34 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J4" t="str">
-        <v>1st</v>
+        <v>2025-26</v>
       </c>
       <c r="K4" t="str">
         <v>Excellent</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4" t="str">
-        <v/>
-      </c>
-      <c r="P4" t="str">
-        <v/>
-      </c>
-      <c r="Q4" t="str">
-        <v/>
-      </c>
-      <c r="S4" t="str">
-        <v/>
-      </c>
-      <c r="T4" t="str">
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <v/>
+        <v>26</v>
       </c>
       <c r="V4">
-        <v>22</v>
-      </c>
-      <c r="W4" t="str">
-        <v/>
-      </c>
-      <c r="X4" t="str">
-        <v/>
-      </c>
-      <c r="Y4" t="str">
-        <v/>
-      </c>
-      <c r="Z4" t="str">
-        <v/>
-      </c>
-      <c r="AA4" t="str">
-        <v/>
-      </c>
-      <c r="AB4" t="str">
-        <v/>
-      </c>
-      <c r="AC4" t="str">
-        <v/>
+        <v>16</v>
       </c>
       <c r="AD4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE4">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AF4">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AG4">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="str">
         <v/>
@@ -983,7 +857,7 @@
         <v>P.G</v>
       </c>
       <c r="E5" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F5" t="str">
         <v/>
@@ -995,76 +869,34 @@
         <v/>
       </c>
       <c r="I5" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J5" t="str">
-        <v>1st</v>
+        <v>2025-26</v>
       </c>
       <c r="K5" t="str">
         <v>just good</v>
       </c>
-      <c r="L5" t="str">
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <v/>
-      </c>
-      <c r="P5" t="str">
-        <v/>
-      </c>
-      <c r="Q5" t="str">
-        <v/>
-      </c>
-      <c r="S5" t="str">
-        <v/>
-      </c>
-      <c r="T5" t="str">
-        <v/>
-      </c>
-      <c r="U5" t="str">
-        <v/>
+      <c r="L5">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>23</v>
       </c>
       <c r="V5">
-        <v>25</v>
-      </c>
-      <c r="W5" t="str">
-        <v/>
-      </c>
-      <c r="X5" t="str">
-        <v/>
-      </c>
-      <c r="Y5" t="str">
-        <v/>
-      </c>
-      <c r="Z5" t="str">
-        <v/>
-      </c>
-      <c r="AA5" t="str">
-        <v/>
-      </c>
-      <c r="AB5" t="str">
-        <v/>
-      </c>
-      <c r="AC5" t="str">
-        <v/>
+        <v>18</v>
       </c>
       <c r="AD5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE5">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AF5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AG5">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="str">
         <v/>
@@ -1123,7 +955,7 @@
         <v>P.G</v>
       </c>
       <c r="E6" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F6" t="str">
         <v/>
@@ -1135,76 +967,34 @@
         <v/>
       </c>
       <c r="I6" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J6" t="str">
-        <v>1st</v>
+        <v>2025-26</v>
       </c>
       <c r="K6" t="str">
         <v>Hmmm</v>
       </c>
-      <c r="L6" t="str">
-        <v/>
-      </c>
-      <c r="M6" t="str">
-        <v/>
-      </c>
-      <c r="N6" t="str">
-        <v/>
-      </c>
-      <c r="O6" t="str">
-        <v/>
-      </c>
-      <c r="P6" t="str">
-        <v/>
-      </c>
-      <c r="Q6" t="str">
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <v/>
+      <c r="L6">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>24</v>
       </c>
       <c r="V6">
-        <v>12</v>
-      </c>
-      <c r="W6" t="str">
-        <v/>
-      </c>
-      <c r="X6" t="str">
-        <v/>
-      </c>
-      <c r="Y6" t="str">
-        <v/>
-      </c>
-      <c r="Z6" t="str">
-        <v/>
-      </c>
-      <c r="AA6" t="str">
-        <v/>
-      </c>
-      <c r="AB6" t="str">
-        <v/>
-      </c>
-      <c r="AC6" t="str">
-        <v/>
+        <v>15</v>
       </c>
       <c r="AD6">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE6">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AF6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AG6">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="str">
         <v/>
@@ -1250,11 +1040,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v/>
+      <c r="A7">
+        <v>2525</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>Shayan</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -1263,7 +1053,7 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F7" t="str">
         <v/>
@@ -1275,76 +1065,34 @@
         <v/>
       </c>
       <c r="I7" t="str">
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K7" t="str">
         <v/>
       </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <v/>
-      </c>
-      <c r="O7" t="str">
-        <v/>
-      </c>
-      <c r="P7" t="str">
-        <v/>
-      </c>
-      <c r="Q7" t="str">
-        <v/>
-      </c>
-      <c r="S7" t="str">
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <v/>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>24</v>
       </c>
       <c r="V7">
-        <v>25</v>
-      </c>
-      <c r="W7" t="str">
-        <v/>
-      </c>
-      <c r="X7" t="str">
-        <v/>
-      </c>
-      <c r="Y7" t="str">
-        <v/>
-      </c>
-      <c r="Z7" t="str">
-        <v/>
-      </c>
-      <c r="AA7" t="str">
-        <v/>
-      </c>
-      <c r="AB7" t="str">
-        <v/>
-      </c>
-      <c r="AC7" t="str">
-        <v/>
+        <v>16</v>
       </c>
       <c r="AD7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AF7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AG7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="str">
         <v/>
@@ -1403,7 +1151,7 @@
         <v>Nursery</v>
       </c>
       <c r="E8" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F8" t="str">
         <v/>
@@ -1415,76 +1163,34 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J8" t="str">
-        <v>1st</v>
+        <v>2025-26</v>
       </c>
       <c r="K8" t="str">
         <v>Hmmm</v>
       </c>
-      <c r="L8" t="str">
-        <v/>
-      </c>
-      <c r="M8" t="str">
-        <v/>
-      </c>
-      <c r="N8" t="str">
-        <v/>
-      </c>
-      <c r="O8" t="str">
-        <v/>
-      </c>
-      <c r="P8" t="str">
-        <v/>
-      </c>
-      <c r="Q8" t="str">
-        <v/>
-      </c>
-      <c r="S8" t="str">
-        <v/>
-      </c>
-      <c r="T8" t="str">
-        <v/>
-      </c>
-      <c r="U8" t="str">
-        <v/>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>18</v>
       </c>
       <c r="V8">
-        <v>24</v>
-      </c>
-      <c r="W8" t="str">
-        <v/>
-      </c>
-      <c r="X8" t="str">
-        <v/>
-      </c>
-      <c r="Y8" t="str">
-        <v/>
-      </c>
-      <c r="Z8" t="str">
-        <v/>
-      </c>
-      <c r="AA8" t="str">
-        <v/>
-      </c>
-      <c r="AB8" t="str">
-        <v/>
-      </c>
-      <c r="AC8" t="str">
-        <v/>
+        <v>17</v>
       </c>
       <c r="AD8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE8">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AF8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AG8">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="str">
         <v/>
@@ -1543,7 +1249,7 @@
         <v>Nursery</v>
       </c>
       <c r="E9" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F9" t="str">
         <v/>
@@ -1555,76 +1261,34 @@
         <v/>
       </c>
       <c r="I9" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J9" t="str">
-        <v>1st</v>
+        <v>2025-26</v>
       </c>
       <c r="K9" t="str">
         <v>Keep it up</v>
       </c>
-      <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <v/>
-      </c>
-      <c r="O9" t="str">
-        <v/>
-      </c>
-      <c r="P9" t="str">
-        <v/>
-      </c>
-      <c r="Q9" t="str">
-        <v/>
-      </c>
-      <c r="S9" t="str">
-        <v/>
-      </c>
-      <c r="T9" t="str">
-        <v/>
-      </c>
-      <c r="U9" t="str">
-        <v/>
+      <c r="L9">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>28</v>
+      </c>
+      <c r="N9">
+        <v>27</v>
       </c>
       <c r="V9">
-        <v>11</v>
-      </c>
-      <c r="W9" t="str">
-        <v/>
-      </c>
-      <c r="X9" t="str">
-        <v/>
-      </c>
-      <c r="Y9" t="str">
-        <v/>
-      </c>
-      <c r="Z9" t="str">
-        <v/>
-      </c>
-      <c r="AA9" t="str">
-        <v/>
-      </c>
-      <c r="AB9" t="str">
-        <v/>
-      </c>
-      <c r="AC9" t="str">
-        <v/>
+        <v>14</v>
       </c>
       <c r="AD9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE9">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AF9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AG9">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="str">
         <v/>
@@ -1683,7 +1347,7 @@
         <v>Nursery</v>
       </c>
       <c r="E10" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F10" t="str">
         <v>2025-002</v>
@@ -1695,76 +1359,34 @@
         <v/>
       </c>
       <c r="I10" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J10" t="str">
-        <v>1st</v>
+        <v>2025-26</v>
       </c>
       <c r="K10" t="str">
         <v>Excellent</v>
       </c>
-      <c r="L10" t="str">
-        <v/>
-      </c>
-      <c r="M10" t="str">
-        <v/>
-      </c>
-      <c r="N10" t="str">
-        <v/>
-      </c>
-      <c r="O10" t="str">
-        <v/>
-      </c>
-      <c r="P10" t="str">
-        <v/>
-      </c>
-      <c r="Q10" t="str">
-        <v/>
-      </c>
-      <c r="S10" t="str">
-        <v/>
-      </c>
-      <c r="T10" t="str">
-        <v/>
-      </c>
-      <c r="U10" t="str">
-        <v/>
+      <c r="L10">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <v>21</v>
       </c>
       <c r="V10">
-        <v>12</v>
-      </c>
-      <c r="W10" t="str">
-        <v/>
-      </c>
-      <c r="X10" t="str">
-        <v/>
-      </c>
-      <c r="Y10" t="str">
-        <v/>
-      </c>
-      <c r="Z10" t="str">
-        <v/>
-      </c>
-      <c r="AA10" t="str">
-        <v/>
-      </c>
-      <c r="AB10" t="str">
-        <v/>
-      </c>
-      <c r="AC10" t="str">
-        <v/>
+        <v>18</v>
       </c>
       <c r="AD10">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AE10">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AF10">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AG10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="str">
         <v/>
@@ -1823,7 +1445,7 @@
         <v>Nursery</v>
       </c>
       <c r="E11" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F11" t="str">
         <v/>
@@ -1835,76 +1457,34 @@
         <v/>
       </c>
       <c r="I11" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J11" t="str">
-        <v>1st</v>
+        <v>2025-26</v>
       </c>
       <c r="K11" t="str">
         <v>just good</v>
       </c>
-      <c r="L11" t="str">
-        <v/>
-      </c>
-      <c r="M11" t="str">
-        <v/>
-      </c>
-      <c r="N11" t="str">
-        <v/>
-      </c>
-      <c r="O11" t="str">
-        <v/>
-      </c>
-      <c r="P11" t="str">
-        <v/>
-      </c>
-      <c r="Q11" t="str">
-        <v/>
-      </c>
-      <c r="S11" t="str">
-        <v/>
-      </c>
-      <c r="T11" t="str">
-        <v/>
-      </c>
-      <c r="U11" t="str">
-        <v/>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>27</v>
       </c>
       <c r="V11">
-        <v>24</v>
-      </c>
-      <c r="W11" t="str">
-        <v/>
-      </c>
-      <c r="X11" t="str">
-        <v/>
-      </c>
-      <c r="Y11" t="str">
-        <v/>
-      </c>
-      <c r="Z11" t="str">
-        <v/>
-      </c>
-      <c r="AA11" t="str">
-        <v/>
-      </c>
-      <c r="AB11" t="str">
-        <v/>
-      </c>
-      <c r="AC11" t="str">
-        <v/>
+        <v>15</v>
       </c>
       <c r="AD11">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AE11">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AF11">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AG11">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="str">
         <v/>
@@ -1963,7 +1543,7 @@
         <v>Nursery</v>
       </c>
       <c r="E12" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F12" t="str">
         <v/>
@@ -1975,76 +1555,34 @@
         <v/>
       </c>
       <c r="I12" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J12" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K12" t="str">
         <v/>
       </c>
-      <c r="L12" t="str">
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <v/>
-      </c>
-      <c r="N12" t="str">
-        <v/>
-      </c>
-      <c r="O12" t="str">
-        <v/>
-      </c>
-      <c r="P12" t="str">
-        <v/>
-      </c>
-      <c r="Q12" t="str">
-        <v/>
-      </c>
-      <c r="S12" t="str">
-        <v/>
-      </c>
-      <c r="T12" t="str">
-        <v/>
-      </c>
-      <c r="U12" t="str">
-        <v/>
+      <c r="L12">
+        <v>29</v>
+      </c>
+      <c r="M12">
+        <v>29</v>
+      </c>
+      <c r="N12">
+        <v>28</v>
       </c>
       <c r="V12">
-        <v>34</v>
-      </c>
-      <c r="W12" t="str">
-        <v/>
-      </c>
-      <c r="X12" t="str">
-        <v/>
-      </c>
-      <c r="Y12" t="str">
-        <v/>
-      </c>
-      <c r="Z12" t="str">
-        <v/>
-      </c>
-      <c r="AA12" t="str">
-        <v/>
-      </c>
-      <c r="AB12" t="str">
-        <v/>
-      </c>
-      <c r="AC12" t="str">
-        <v/>
+        <v>18</v>
       </c>
       <c r="AD12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AE12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AF12">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG12">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="str">
         <v/>
@@ -2090,20 +1628,20 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v/>
+      <c r="A13">
+        <v>2526</v>
       </c>
       <c r="B13" t="str">
-        <v/>
+        <v xml:space="preserve">Manahil </v>
       </c>
       <c r="C13" t="str">
         <v/>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>K.G-II</v>
       </c>
       <c r="E13" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F13" t="str">
         <v/>
@@ -2115,76 +1653,34 @@
         <v/>
       </c>
       <c r="I13" t="str">
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K13" t="str">
         <v/>
       </c>
-      <c r="L13" t="str">
-        <v/>
-      </c>
-      <c r="M13" t="str">
-        <v/>
-      </c>
-      <c r="N13" t="str">
-        <v/>
-      </c>
-      <c r="O13" t="str">
-        <v/>
-      </c>
-      <c r="P13" t="str">
-        <v/>
-      </c>
-      <c r="Q13" t="str">
-        <v/>
-      </c>
-      <c r="S13" t="str">
-        <v/>
-      </c>
-      <c r="T13" t="str">
-        <v/>
-      </c>
-      <c r="U13" t="str">
-        <v/>
-      </c>
-      <c r="V13" t="str">
-        <v/>
-      </c>
-      <c r="W13" t="str">
-        <v/>
-      </c>
-      <c r="X13" t="str">
-        <v/>
-      </c>
-      <c r="Y13" t="str">
-        <v/>
-      </c>
-      <c r="Z13" t="str">
-        <v/>
-      </c>
-      <c r="AA13" t="str">
-        <v/>
-      </c>
-      <c r="AB13" t="str">
-        <v/>
-      </c>
-      <c r="AC13" t="str">
-        <v/>
-      </c>
-      <c r="AD13" t="str">
-        <v/>
-      </c>
-      <c r="AE13" t="str">
-        <v/>
-      </c>
-      <c r="AF13" t="str">
-        <v/>
-      </c>
-      <c r="AG13" t="str">
-        <v/>
+      <c r="L13">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>26</v>
+      </c>
+      <c r="V13">
+        <v>19</v>
+      </c>
+      <c r="AD13">
+        <v>18</v>
+      </c>
+      <c r="AE13">
+        <v>18</v>
+      </c>
+      <c r="AF13">
+        <v>17</v>
+      </c>
+      <c r="AG13">
+        <v>19</v>
       </c>
       <c r="AI13" t="str">
         <v/>
@@ -2243,7 +1739,7 @@
         <v>K.G-II</v>
       </c>
       <c r="E14" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F14" t="str">
         <v/>
@@ -2255,76 +1751,34 @@
         <v/>
       </c>
       <c r="I14" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J14" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K14" t="str">
         <v/>
       </c>
-      <c r="L14" t="str">
-        <v/>
-      </c>
-      <c r="M14" t="str">
-        <v/>
-      </c>
-      <c r="N14" t="str">
-        <v/>
-      </c>
-      <c r="O14" t="str">
-        <v/>
-      </c>
-      <c r="P14" t="str">
-        <v/>
-      </c>
-      <c r="Q14" t="str">
-        <v/>
-      </c>
-      <c r="S14" t="str">
-        <v/>
-      </c>
-      <c r="T14" t="str">
-        <v/>
-      </c>
-      <c r="U14" t="str">
-        <v/>
-      </c>
-      <c r="V14" t="str">
-        <v/>
-      </c>
-      <c r="W14" t="str">
-        <v/>
-      </c>
-      <c r="X14" t="str">
-        <v/>
-      </c>
-      <c r="Y14" t="str">
-        <v/>
-      </c>
-      <c r="Z14" t="str">
-        <v/>
-      </c>
-      <c r="AA14" t="str">
-        <v/>
-      </c>
-      <c r="AB14" t="str">
-        <v/>
-      </c>
-      <c r="AC14" t="str">
-        <v/>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>27</v>
+      </c>
+      <c r="N14">
+        <v>27</v>
+      </c>
+      <c r="V14">
+        <v>15</v>
       </c>
       <c r="AD14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AF14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG14">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="str">
         <v/>
@@ -2383,7 +1837,7 @@
         <v>K.G-II</v>
       </c>
       <c r="E15" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F15" t="str">
         <v/>
@@ -2395,76 +1849,34 @@
         <v/>
       </c>
       <c r="I15" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J15" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K15" t="str">
         <v/>
       </c>
-      <c r="L15" t="str">
-        <v/>
-      </c>
-      <c r="M15" t="str">
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <v/>
-      </c>
-      <c r="P15" t="str">
-        <v/>
-      </c>
-      <c r="Q15" t="str">
-        <v/>
-      </c>
-      <c r="S15" t="str">
-        <v/>
-      </c>
-      <c r="T15" t="str">
-        <v/>
-      </c>
-      <c r="U15" t="str">
-        <v/>
-      </c>
-      <c r="V15" t="str">
-        <v/>
-      </c>
-      <c r="W15" t="str">
-        <v/>
-      </c>
-      <c r="X15" t="str">
-        <v/>
-      </c>
-      <c r="Y15" t="str">
-        <v/>
-      </c>
-      <c r="Z15" t="str">
-        <v/>
-      </c>
-      <c r="AA15" t="str">
-        <v/>
-      </c>
-      <c r="AB15" t="str">
-        <v/>
-      </c>
-      <c r="AC15" t="str">
-        <v/>
+      <c r="L15">
+        <v>28</v>
+      </c>
+      <c r="M15">
+        <v>27</v>
+      </c>
+      <c r="N15">
+        <v>24</v>
+      </c>
+      <c r="V15">
+        <v>19</v>
       </c>
       <c r="AD15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE15">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AF15">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AG15">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="str">
         <v/>
@@ -2511,19 +1923,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v>002474</v>
       </c>
       <c r="B16" t="str">
-        <v/>
+        <v>Zoya</v>
       </c>
       <c r="C16" t="str">
         <v/>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>K.G-II</v>
       </c>
       <c r="E16" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F16" t="str">
         <v/>
@@ -2535,76 +1947,34 @@
         <v/>
       </c>
       <c r="I16" t="str">
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K16" t="str">
         <v/>
       </c>
-      <c r="L16" t="str">
-        <v/>
-      </c>
-      <c r="M16" t="str">
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <v/>
-      </c>
-      <c r="P16" t="str">
-        <v/>
-      </c>
-      <c r="Q16" t="str">
-        <v/>
-      </c>
-      <c r="S16" t="str">
-        <v/>
-      </c>
-      <c r="T16" t="str">
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <v/>
-      </c>
-      <c r="V16" t="str">
-        <v/>
-      </c>
-      <c r="W16" t="str">
-        <v/>
-      </c>
-      <c r="X16" t="str">
-        <v/>
-      </c>
-      <c r="Y16" t="str">
-        <v/>
-      </c>
-      <c r="Z16" t="str">
-        <v/>
-      </c>
-      <c r="AA16" t="str">
-        <v/>
-      </c>
-      <c r="AB16" t="str">
-        <v/>
-      </c>
-      <c r="AC16" t="str">
-        <v/>
-      </c>
-      <c r="AD16" t="str">
-        <v/>
-      </c>
-      <c r="AE16" t="str">
-        <v/>
-      </c>
-      <c r="AF16" t="str">
-        <v/>
-      </c>
-      <c r="AG16" t="str">
-        <v/>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="V16">
+        <v>15</v>
+      </c>
+      <c r="AD16">
+        <v>17</v>
+      </c>
+      <c r="AE16">
+        <v>16</v>
+      </c>
+      <c r="AF16">
+        <v>16</v>
+      </c>
+      <c r="AG16">
+        <v>16</v>
       </c>
       <c r="AI16" t="str">
         <v/>
@@ -2651,22 +2021,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v/>
+        <v>002452</v>
       </c>
       <c r="B17" t="str">
-        <v/>
+        <v>Saqib</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Hamid Khan</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>K.G-II</v>
       </c>
       <c r="E17" t="str">
-        <v>1st Term</v>
-      </c>
-      <c r="F17" t="str">
-        <v/>
+        <v>December Test</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -2675,76 +2042,34 @@
         <v/>
       </c>
       <c r="I17" t="str">
-        <v/>
-      </c>
-      <c r="J17" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K17" t="str">
         <v/>
       </c>
-      <c r="L17" t="str">
-        <v/>
-      </c>
-      <c r="M17" t="str">
-        <v/>
-      </c>
-      <c r="N17" t="str">
-        <v/>
-      </c>
-      <c r="O17" t="str">
-        <v/>
-      </c>
-      <c r="P17" t="str">
-        <v/>
-      </c>
-      <c r="Q17" t="str">
-        <v/>
-      </c>
-      <c r="S17" t="str">
-        <v/>
-      </c>
-      <c r="T17" t="str">
-        <v/>
-      </c>
-      <c r="U17" t="str">
-        <v/>
-      </c>
-      <c r="V17" t="str">
-        <v/>
-      </c>
-      <c r="W17" t="str">
-        <v/>
-      </c>
-      <c r="X17" t="str">
-        <v/>
-      </c>
-      <c r="Y17" t="str">
-        <v/>
-      </c>
-      <c r="Z17" t="str">
-        <v/>
-      </c>
-      <c r="AA17" t="str">
-        <v/>
-      </c>
-      <c r="AB17" t="str">
-        <v/>
-      </c>
-      <c r="AC17" t="str">
-        <v/>
-      </c>
-      <c r="AD17" t="str">
-        <v/>
-      </c>
-      <c r="AE17" t="str">
-        <v/>
-      </c>
-      <c r="AF17" t="str">
-        <v/>
-      </c>
-      <c r="AG17" t="str">
-        <v/>
+      <c r="L17">
+        <v>29</v>
+      </c>
+      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>29</v>
+      </c>
+      <c r="V17">
+        <v>18</v>
+      </c>
+      <c r="AD17">
+        <v>19</v>
+      </c>
+      <c r="AE17">
+        <v>20</v>
+      </c>
+      <c r="AF17">
+        <v>19</v>
+      </c>
+      <c r="AG17">
+        <v>19</v>
       </c>
       <c r="AI17" t="str">
         <v/>
@@ -2789,21 +2114,22 @@
         <v/>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v/>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str" xml:space="preserve">
+        <v xml:space="preserve">002479_x000d_
+</v>
       </c>
       <c r="B18" t="str">
-        <v/>
+        <v>Shair Ali</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>Sajjad Ahmad</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>K.G-II</v>
       </c>
       <c r="E18" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F18" t="str">
         <v/>
@@ -2815,76 +2141,34 @@
         <v/>
       </c>
       <c r="I18" t="str">
-        <v/>
-      </c>
-      <c r="J18" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K18" t="str">
         <v/>
       </c>
-      <c r="L18" t="str">
-        <v/>
-      </c>
-      <c r="M18" t="str">
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <v/>
-      </c>
-      <c r="O18" t="str">
-        <v/>
-      </c>
-      <c r="P18" t="str">
-        <v/>
-      </c>
-      <c r="Q18" t="str">
-        <v/>
-      </c>
-      <c r="S18" t="str">
-        <v/>
-      </c>
-      <c r="T18" t="str">
-        <v/>
-      </c>
-      <c r="U18" t="str">
-        <v/>
-      </c>
-      <c r="V18" t="str">
-        <v/>
-      </c>
-      <c r="W18" t="str">
-        <v/>
-      </c>
-      <c r="X18" t="str">
-        <v/>
-      </c>
-      <c r="Y18" t="str">
-        <v/>
-      </c>
-      <c r="Z18" t="str">
-        <v/>
-      </c>
-      <c r="AA18" t="str">
-        <v/>
-      </c>
-      <c r="AB18" t="str">
-        <v/>
-      </c>
-      <c r="AC18" t="str">
-        <v/>
-      </c>
-      <c r="AD18" t="str">
-        <v/>
-      </c>
-      <c r="AE18" t="str">
-        <v/>
-      </c>
-      <c r="AF18" t="str">
-        <v/>
-      </c>
-      <c r="AG18" t="str">
-        <v/>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>24</v>
+      </c>
+      <c r="V18">
+        <v>20</v>
+      </c>
+      <c r="AD18">
+        <v>19</v>
+      </c>
+      <c r="AE18">
+        <v>19</v>
+      </c>
+      <c r="AF18">
+        <v>19</v>
+      </c>
+      <c r="AG18">
+        <v>19</v>
       </c>
       <c r="AI18" t="str">
         <v/>
@@ -2943,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F19" t="str">
         <v/>
@@ -2955,76 +2239,28 @@
         <v/>
       </c>
       <c r="I19" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J19" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K19" t="str">
         <v/>
       </c>
-      <c r="L19" t="str">
-        <v/>
-      </c>
-      <c r="M19" t="str">
-        <v/>
-      </c>
-      <c r="N19" t="str">
-        <v/>
-      </c>
-      <c r="O19" t="str">
-        <v/>
-      </c>
-      <c r="P19" t="str">
-        <v/>
-      </c>
-      <c r="Q19" t="str">
-        <v/>
-      </c>
-      <c r="S19" t="str">
-        <v/>
-      </c>
-      <c r="T19" t="str">
-        <v/>
-      </c>
-      <c r="U19" t="str">
-        <v/>
-      </c>
-      <c r="V19" t="str">
-        <v/>
-      </c>
-      <c r="W19" t="str">
-        <v/>
-      </c>
-      <c r="X19" t="str">
-        <v/>
-      </c>
-      <c r="Y19" t="str">
-        <v/>
-      </c>
-      <c r="Z19" t="str">
-        <v/>
-      </c>
-      <c r="AA19" t="str">
-        <v/>
-      </c>
-      <c r="AB19" t="str">
-        <v/>
-      </c>
-      <c r="AC19" t="str">
-        <v/>
-      </c>
-      <c r="AD19" t="str">
-        <v/>
-      </c>
-      <c r="AE19" t="str">
-        <v/>
-      </c>
-      <c r="AF19" t="str">
-        <v/>
-      </c>
-      <c r="AG19" t="str">
-        <v/>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>22</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>24</v>
+      </c>
+      <c r="V19">
+        <v>40</v>
       </c>
       <c r="AI19" t="str">
         <v/>
@@ -3080,10 +2316,10 @@
         <v>Muhammad Zaman Shahzad</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F20" t="str">
         <v/>
@@ -3095,28 +2331,25 @@
         <v/>
       </c>
       <c r="I20" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J20" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K20" t="str">
         <v/>
       </c>
-      <c r="L20" t="str">
-        <v/>
-      </c>
-      <c r="M20" t="str">
-        <v/>
-      </c>
-      <c r="N20" t="str">
-        <v/>
+      <c r="L20">
+        <v>34.5</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>24</v>
       </c>
       <c r="O20" t="str">
         <v/>
       </c>
-      <c r="P20" t="str">
-        <v/>
+      <c r="P20">
+        <v>41</v>
       </c>
       <c r="Q20" t="str">
         <v/>
@@ -3124,14 +2357,14 @@
       <c r="S20" t="str">
         <v/>
       </c>
-      <c r="T20" t="str">
-        <v/>
+      <c r="T20">
+        <v>32</v>
       </c>
       <c r="U20" t="str">
         <v/>
       </c>
-      <c r="V20" t="str">
-        <v/>
+      <c r="V20">
+        <v>40</v>
       </c>
       <c r="W20" t="str">
         <v/>
@@ -3210,20 +2443,20 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>002473</v>
+      <c r="A21">
+        <v>2475</v>
       </c>
       <c r="B21" t="str">
-        <v>Muhammad Amar</v>
+        <v>Muhammad Faiq</v>
       </c>
       <c r="C21" t="str">
-        <v>Tariq Mehmood</v>
+        <v>Ihsan-ul-Wahab</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F21" t="str">
         <v/>
@@ -3235,28 +2468,25 @@
         <v/>
       </c>
       <c r="I21" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J21" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K21" t="str">
         <v/>
       </c>
-      <c r="L21" t="str">
-        <v/>
-      </c>
-      <c r="M21" t="str">
-        <v/>
-      </c>
-      <c r="N21" t="str">
-        <v/>
+      <c r="L21">
+        <v>46</v>
+      </c>
+      <c r="M21">
+        <v>48</v>
+      </c>
+      <c r="N21">
+        <v>40</v>
       </c>
       <c r="O21" t="str">
         <v/>
       </c>
-      <c r="P21" t="str">
-        <v/>
+      <c r="P21">
+        <v>48.5</v>
       </c>
       <c r="Q21" t="str">
         <v/>
@@ -3264,14 +2494,14 @@
       <c r="S21" t="str">
         <v/>
       </c>
-      <c r="T21" t="str">
-        <v/>
+      <c r="T21">
+        <v>48.5</v>
       </c>
       <c r="U21" t="str">
         <v/>
       </c>
-      <c r="V21" t="str">
-        <v/>
+      <c r="V21">
+        <v>40</v>
       </c>
       <c r="W21" t="str">
         <v/>
@@ -3363,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F22" t="str">
         <v/>
@@ -3375,28 +2605,25 @@
         <v/>
       </c>
       <c r="I22" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J22" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K22" t="str">
         <v/>
       </c>
-      <c r="L22" t="str">
-        <v/>
-      </c>
-      <c r="M22" t="str">
-        <v/>
-      </c>
-      <c r="N22" t="str">
-        <v/>
+      <c r="L22">
+        <v>26.5</v>
+      </c>
+      <c r="M22">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>34</v>
       </c>
       <c r="O22" t="str">
         <v/>
       </c>
-      <c r="P22" t="str">
-        <v/>
+      <c r="P22">
+        <v>38</v>
       </c>
       <c r="Q22" t="str">
         <v/>
@@ -3404,14 +2631,14 @@
       <c r="S22" t="str">
         <v/>
       </c>
-      <c r="T22" t="str">
-        <v/>
+      <c r="T22">
+        <v>31.5</v>
       </c>
       <c r="U22" t="str">
         <v/>
       </c>
-      <c r="V22" t="str">
-        <v/>
+      <c r="V22">
+        <v>35</v>
       </c>
       <c r="W22" t="str">
         <v/>
@@ -3490,20 +2717,20 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v/>
+      <c r="A23">
+        <v>2431</v>
       </c>
       <c r="B23" t="str">
-        <v/>
+        <v>Maira Abrar</v>
       </c>
       <c r="C23" t="str">
         <v/>
       </c>
-      <c r="D23" t="str">
-        <v/>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F23" t="str">
         <v/>
@@ -3515,10 +2742,7 @@
         <v/>
       </c>
       <c r="I23" t="str">
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K23" t="str">
         <v/>
@@ -3526,17 +2750,17 @@
       <c r="L23" t="str">
         <v/>
       </c>
-      <c r="M23" t="str">
-        <v/>
-      </c>
-      <c r="N23" t="str">
-        <v/>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
       </c>
       <c r="O23" t="str">
         <v/>
       </c>
-      <c r="P23" t="str">
-        <v/>
+      <c r="P23">
+        <v>12</v>
       </c>
       <c r="Q23" t="str">
         <v/>
@@ -3544,14 +2768,14 @@
       <c r="S23" t="str">
         <v/>
       </c>
-      <c r="T23" t="str">
-        <v/>
+      <c r="T23">
+        <v>15</v>
       </c>
       <c r="U23" t="str">
         <v/>
       </c>
-      <c r="V23" t="str">
-        <v/>
+      <c r="V23">
+        <v>45</v>
       </c>
       <c r="W23" t="str">
         <v/>
@@ -3643,7 +2867,7 @@
         <v/>
       </c>
       <c r="E24" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F24" t="str">
         <v/>
@@ -3655,10 +2879,7 @@
         <v/>
       </c>
       <c r="I24" t="str">
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K24" t="str">
         <v/>
@@ -3688,9 +2909,6 @@
         <v/>
       </c>
       <c r="U24" t="str">
-        <v/>
-      </c>
-      <c r="V24" t="str">
         <v/>
       </c>
       <c r="W24" t="str">
@@ -3783,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F25" t="str">
         <v/>
@@ -3795,28 +3013,25 @@
         <v/>
       </c>
       <c r="I25" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J25" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K25" t="str">
         <v/>
       </c>
-      <c r="L25" t="str">
-        <v/>
-      </c>
-      <c r="M25" t="str">
-        <v/>
-      </c>
-      <c r="N25" t="str">
-        <v/>
+      <c r="L25">
+        <v>32</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>41</v>
       </c>
       <c r="O25" t="str">
         <v/>
       </c>
-      <c r="P25" t="str">
-        <v/>
+      <c r="P25">
+        <v>28</v>
       </c>
       <c r="Q25" t="str">
         <v/>
@@ -3824,14 +3039,14 @@
       <c r="S25" t="str">
         <v/>
       </c>
-      <c r="T25" t="str">
-        <v/>
+      <c r="T25">
+        <v>26</v>
       </c>
       <c r="U25" t="str">
         <v/>
       </c>
-      <c r="V25" t="str">
-        <v/>
+      <c r="V25">
+        <v>45</v>
       </c>
       <c r="W25" t="str">
         <v/>
@@ -3923,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F26" t="str">
         <v/>
@@ -3935,28 +3150,25 @@
         <v/>
       </c>
       <c r="I26" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J26" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K26" t="str">
         <v/>
       </c>
-      <c r="L26" t="str">
-        <v/>
-      </c>
-      <c r="M26" t="str">
-        <v/>
-      </c>
-      <c r="N26" t="str">
-        <v/>
+      <c r="L26">
+        <v>47.5</v>
+      </c>
+      <c r="M26">
+        <v>18</v>
+      </c>
+      <c r="N26">
+        <v>45.5</v>
       </c>
       <c r="O26" t="str">
         <v/>
       </c>
-      <c r="P26" t="str">
-        <v/>
+      <c r="P26">
+        <v>34</v>
       </c>
       <c r="Q26" t="str">
         <v/>
@@ -3964,14 +3176,14 @@
       <c r="S26" t="str">
         <v/>
       </c>
-      <c r="T26" t="str">
-        <v/>
+      <c r="T26">
+        <v>43</v>
       </c>
       <c r="U26" t="str">
         <v/>
       </c>
-      <c r="V26" t="str">
-        <v/>
+      <c r="V26">
+        <v>47</v>
       </c>
       <c r="W26" t="str">
         <v/>
@@ -4063,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F27" t="str">
         <v/>
@@ -4075,28 +3287,22 @@
         <v/>
       </c>
       <c r="I27" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J27" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K27" t="str">
         <v/>
       </c>
-      <c r="L27" t="str">
-        <v/>
-      </c>
-      <c r="M27" t="str">
-        <v/>
-      </c>
-      <c r="N27" t="str">
-        <v/>
-      </c>
-      <c r="O27" t="str">
-        <v/>
-      </c>
-      <c r="P27" t="str">
-        <v/>
+      <c r="L27">
+        <v>48.5</v>
+      </c>
+      <c r="M27">
+        <v>24</v>
+      </c>
+      <c r="N27">
+        <v>47</v>
+      </c>
+      <c r="P27">
+        <v>41</v>
       </c>
       <c r="Q27" t="str">
         <v/>
@@ -4104,14 +3310,14 @@
       <c r="S27" t="str">
         <v/>
       </c>
-      <c r="T27" t="str">
-        <v/>
+      <c r="T27">
+        <v>46.5</v>
       </c>
       <c r="U27" t="str">
         <v/>
       </c>
-      <c r="V27" t="str">
-        <v/>
+      <c r="V27">
+        <v>40</v>
       </c>
       <c r="W27" t="str">
         <v/>
@@ -4203,7 +3409,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F28" t="str">
         <v/>
@@ -4215,17 +3421,11 @@
         <v/>
       </c>
       <c r="I28" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J28" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K28" t="str">
         <v/>
       </c>
-      <c r="L28" t="str">
-        <v/>
-      </c>
       <c r="M28" t="str">
         <v/>
       </c>
@@ -4244,13 +3444,7 @@
       <c r="S28" t="str">
         <v/>
       </c>
-      <c r="T28" t="str">
-        <v/>
-      </c>
       <c r="U28" t="str">
-        <v/>
-      </c>
-      <c r="V28" t="str">
         <v/>
       </c>
       <c r="W28" t="str">
@@ -4343,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F29" t="str">
         <v/>
@@ -4355,28 +3549,25 @@
         <v/>
       </c>
       <c r="I29" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J29" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K29" t="str">
         <v/>
       </c>
-      <c r="L29" t="str">
-        <v/>
-      </c>
-      <c r="M29" t="str">
-        <v/>
-      </c>
-      <c r="N29" t="str">
-        <v/>
+      <c r="L29">
+        <v>44</v>
+      </c>
+      <c r="M29">
+        <v>22</v>
+      </c>
+      <c r="N29">
+        <v>38</v>
       </c>
       <c r="O29" t="str">
         <v/>
       </c>
-      <c r="P29" t="str">
-        <v/>
+      <c r="P29">
+        <v>40</v>
       </c>
       <c r="Q29" t="str">
         <v/>
@@ -4384,14 +3575,14 @@
       <c r="S29" t="str">
         <v/>
       </c>
-      <c r="T29" t="str">
-        <v/>
+      <c r="T29">
+        <v>42</v>
       </c>
       <c r="U29" t="str">
         <v/>
       </c>
-      <c r="V29" t="str">
-        <v/>
+      <c r="V29">
+        <v>45</v>
       </c>
       <c r="W29" t="str">
         <v/>
@@ -4483,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F30" t="str">
         <v/>
@@ -4495,28 +3686,25 @@
         <v/>
       </c>
       <c r="I30" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J30" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K30" t="str">
         <v/>
       </c>
-      <c r="L30" t="str">
-        <v/>
-      </c>
-      <c r="M30" t="str">
-        <v/>
-      </c>
-      <c r="N30" t="str">
-        <v/>
+      <c r="L30">
+        <v>48</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <v>45</v>
       </c>
       <c r="O30" t="str">
         <v/>
       </c>
-      <c r="P30" t="str">
-        <v/>
+      <c r="P30">
+        <v>47.5</v>
       </c>
       <c r="Q30" t="str">
         <v/>
@@ -4524,14 +3712,14 @@
       <c r="S30" t="str">
         <v/>
       </c>
-      <c r="T30" t="str">
-        <v/>
+      <c r="T30">
+        <v>24</v>
       </c>
       <c r="U30" t="str">
         <v/>
       </c>
-      <c r="V30" t="str">
-        <v/>
+      <c r="V30">
+        <v>35</v>
       </c>
       <c r="W30" t="str">
         <v/>
@@ -4623,7 +3811,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F31" t="str">
         <v>2024-003</v>
@@ -4635,28 +3823,25 @@
         <v/>
       </c>
       <c r="I31" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J31" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K31" t="str">
         <v/>
       </c>
-      <c r="L31" t="str">
-        <v/>
-      </c>
-      <c r="M31" t="str">
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <v/>
+      <c r="L31">
+        <v>48.5</v>
+      </c>
+      <c r="M31">
+        <v>49.5</v>
+      </c>
+      <c r="N31">
+        <v>45.5</v>
       </c>
       <c r="O31" t="str">
         <v/>
       </c>
-      <c r="P31" t="str">
-        <v/>
+      <c r="P31">
+        <v>39</v>
       </c>
       <c r="Q31" t="str">
         <v/>
@@ -4664,14 +3849,14 @@
       <c r="S31" t="str">
         <v/>
       </c>
-      <c r="T31" t="str">
-        <v/>
+      <c r="T31">
+        <v>15</v>
       </c>
       <c r="U31" t="str">
         <v/>
       </c>
-      <c r="V31" t="str">
-        <v/>
+      <c r="V31">
+        <v>45</v>
       </c>
       <c r="W31" t="str">
         <v/>
@@ -4751,16 +3936,19 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v/>
+        <v>002473</v>
       </c>
       <c r="B32" t="str">
-        <v/>
+        <v>Muhammad Amar</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>Tariq Mehmood</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
       </c>
       <c r="E32" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F32" t="str">
         <v/>
@@ -4772,22 +3960,19 @@
         <v/>
       </c>
       <c r="I32" t="str">
-        <v/>
-      </c>
-      <c r="J32" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K32" t="str">
         <v/>
       </c>
-      <c r="L32" t="str">
-        <v/>
-      </c>
-      <c r="M32" t="str">
-        <v/>
-      </c>
-      <c r="N32" t="str">
-        <v/>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>14</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
       </c>
       <c r="O32" t="str">
         <v/>
@@ -4801,14 +3986,14 @@
       <c r="S32" t="str">
         <v/>
       </c>
-      <c r="T32" t="str">
-        <v/>
+      <c r="T32">
+        <v>11</v>
       </c>
       <c r="U32" t="str">
         <v/>
       </c>
-      <c r="V32" t="str">
-        <v/>
+      <c r="V32">
+        <v>40</v>
       </c>
       <c r="W32" t="str">
         <v/>
@@ -4900,7 +4085,7 @@
         <v/>
       </c>
       <c r="E33" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F33" t="str">
         <v/>
@@ -4912,10 +4097,7 @@
         <v/>
       </c>
       <c r="I33" t="str">
-        <v/>
-      </c>
-      <c r="J33" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K33" t="str">
         <v/>
@@ -5040,7 +4222,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F34" t="str">
         <v/>
@@ -5052,28 +4234,25 @@
         <v/>
       </c>
       <c r="I34" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J34" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K34" t="str">
         <v/>
       </c>
-      <c r="L34" t="str">
-        <v/>
-      </c>
-      <c r="M34" t="str">
-        <v/>
-      </c>
-      <c r="N34" t="str">
-        <v/>
+      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>30</v>
       </c>
       <c r="O34" t="str">
         <v/>
       </c>
-      <c r="P34" t="str">
-        <v/>
+      <c r="P34">
+        <v>2</v>
       </c>
       <c r="Q34" t="str">
         <v/>
@@ -5180,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F35" t="str">
         <v>2024-005</v>
@@ -5192,28 +4371,25 @@
         <v/>
       </c>
       <c r="I35" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J35" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K35" t="str">
         <v/>
       </c>
-      <c r="L35" t="str">
-        <v/>
-      </c>
-      <c r="M35" t="str">
-        <v/>
-      </c>
-      <c r="N35" t="str">
-        <v/>
+      <c r="L35">
+        <v>31</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <v>34</v>
       </c>
       <c r="O35" t="str">
         <v/>
       </c>
-      <c r="P35" t="str">
-        <v/>
+      <c r="P35">
+        <v>20</v>
       </c>
       <c r="Q35" t="str">
         <v/>
@@ -5320,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="E36" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F36" t="str">
         <v/>
@@ -5332,28 +4508,25 @@
         <v/>
       </c>
       <c r="I36" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J36" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K36" t="str">
         <v/>
       </c>
-      <c r="L36" t="str">
-        <v/>
-      </c>
-      <c r="M36" t="str">
-        <v/>
-      </c>
-      <c r="N36" t="str">
-        <v/>
+      <c r="L36">
+        <v>40</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>40</v>
       </c>
       <c r="O36" t="str">
         <v/>
       </c>
-      <c r="P36" t="str">
-        <v/>
+      <c r="P36">
+        <v>32</v>
       </c>
       <c r="Q36" t="str">
         <v/>
@@ -5361,8 +4534,8 @@
       <c r="S36" t="str">
         <v/>
       </c>
-      <c r="T36" t="str">
-        <v/>
+      <c r="T36">
+        <v>8</v>
       </c>
       <c r="U36" t="str">
         <v/>
@@ -5460,7 +4633,7 @@
         <v/>
       </c>
       <c r="E37" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F37" t="str">
         <v/>
@@ -5472,10 +4645,7 @@
         <v/>
       </c>
       <c r="I37" t="str">
-        <v/>
-      </c>
-      <c r="J37" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K37" t="str">
         <v/>
@@ -5501,8 +4671,8 @@
       <c r="S37" t="str">
         <v/>
       </c>
-      <c r="T37" t="str">
-        <v/>
+      <c r="T37">
+        <v>27</v>
       </c>
       <c r="U37" t="str">
         <v/>
@@ -5590,9 +4760,6 @@
       <c r="A38" t="str">
         <v/>
       </c>
-      <c r="B38" t="str">
-        <v/>
-      </c>
       <c r="C38" t="str">
         <v/>
       </c>
@@ -5600,7 +4767,7 @@
         <v/>
       </c>
       <c r="E38" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F38" t="str">
         <v/>
@@ -5612,10 +4779,7 @@
         <v/>
       </c>
       <c r="I38" t="str">
-        <v/>
-      </c>
-      <c r="J38" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K38" t="str">
         <v/>
@@ -5641,8 +4805,8 @@
       <c r="S38" t="str">
         <v/>
       </c>
-      <c r="T38" t="str">
-        <v/>
+      <c r="T38">
+        <v>27</v>
       </c>
       <c r="U38" t="str">
         <v/>
@@ -5727,20 +4891,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
-        <v>002402</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Umaima Noor</v>
-      </c>
-      <c r="C39" t="str">
-        <v>Muhammad Sohail Satti (Late)</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
       <c r="E39" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F39" t="str">
         <v/>
@@ -5752,10 +4904,7 @@
         <v/>
       </c>
       <c r="I39" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J39" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K39" t="str">
         <v/>
@@ -5867,20 +5016,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
-        <v>002419</v>
-      </c>
-      <c r="B40" t="str">
-        <v>Zamin</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Mehmood Hussain</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
       <c r="E40" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F40" t="str">
         <v/>
@@ -5892,10 +5029,7 @@
         <v/>
       </c>
       <c r="I40" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J40" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K40" t="str">
         <v/>
@@ -6020,7 +5154,7 @@
         <v>4</v>
       </c>
       <c r="E41" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F41" t="str">
         <v/>
@@ -6032,22 +5166,19 @@
         <v/>
       </c>
       <c r="I41" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J41" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K41" t="str">
         <v/>
       </c>
-      <c r="L41" t="str">
-        <v/>
-      </c>
-      <c r="M41" t="str">
-        <v/>
-      </c>
-      <c r="N41" t="str">
-        <v/>
+      <c r="L41">
+        <v>46</v>
+      </c>
+      <c r="M41">
+        <v>24</v>
+      </c>
+      <c r="N41">
+        <v>49.5</v>
       </c>
       <c r="O41" t="str">
         <v/>
@@ -6055,20 +5186,20 @@
       <c r="P41" t="str">
         <v/>
       </c>
-      <c r="Q41" t="str">
-        <v/>
-      </c>
-      <c r="S41" t="str">
-        <v/>
-      </c>
-      <c r="T41" t="str">
-        <v/>
-      </c>
-      <c r="U41" t="str">
-        <v/>
-      </c>
-      <c r="V41" t="str">
-        <v/>
+      <c r="Q41">
+        <v>23</v>
+      </c>
+      <c r="S41">
+        <v>32.5</v>
+      </c>
+      <c r="T41">
+        <v>47</v>
+      </c>
+      <c r="U41">
+        <v>23.5</v>
+      </c>
+      <c r="V41">
+        <v>45</v>
       </c>
       <c r="W41" t="str">
         <v/>
@@ -6160,7 +5291,7 @@
         <v>4</v>
       </c>
       <c r="E42" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F42" t="str">
         <v/>
@@ -6172,22 +5303,19 @@
         <v/>
       </c>
       <c r="I42" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J42" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K42" t="str">
         <v/>
       </c>
-      <c r="L42" t="str">
-        <v/>
-      </c>
-      <c r="M42" t="str">
-        <v/>
-      </c>
-      <c r="N42" t="str">
-        <v/>
+      <c r="L42">
+        <v>48.5</v>
+      </c>
+      <c r="M42">
+        <v>40.5</v>
+      </c>
+      <c r="N42">
+        <v>43.5</v>
       </c>
       <c r="O42" t="str">
         <v/>
@@ -6195,20 +5323,20 @@
       <c r="P42" t="str">
         <v/>
       </c>
-      <c r="Q42" t="str">
-        <v/>
-      </c>
-      <c r="S42" t="str">
-        <v/>
-      </c>
-      <c r="T42" t="str">
-        <v/>
-      </c>
-      <c r="U42" t="str">
-        <v/>
-      </c>
-      <c r="V42" t="str">
-        <v/>
+      <c r="Q42">
+        <v>44.5</v>
+      </c>
+      <c r="S42">
+        <v>50</v>
+      </c>
+      <c r="T42">
+        <v>48.5</v>
+      </c>
+      <c r="U42">
+        <v>49.5</v>
+      </c>
+      <c r="V42">
+        <v>47</v>
       </c>
       <c r="W42" t="str">
         <v/>
@@ -6300,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="E43" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F43" t="str">
         <v/>
@@ -6312,17 +5440,11 @@
         <v/>
       </c>
       <c r="I43" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J43" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K43" t="str">
         <v/>
       </c>
-      <c r="L43" t="str">
-        <v/>
-      </c>
       <c r="M43" t="str">
         <v/>
       </c>
@@ -6336,9 +5458,6 @@
         <v/>
       </c>
       <c r="Q43" t="str">
-        <v/>
-      </c>
-      <c r="S43" t="str">
         <v/>
       </c>
       <c r="T43" t="str">
@@ -6428,19 +5547,19 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v/>
+        <v>002402</v>
       </c>
       <c r="B44" t="str">
-        <v/>
+        <v>Umaima Noor</v>
       </c>
       <c r="C44" t="str">
-        <v/>
-      </c>
-      <c r="D44" t="str">
-        <v/>
+        <v>Muhammad Sohail Satti (Late)</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
       </c>
       <c r="E44" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F44" t="str">
         <v/>
@@ -6452,22 +5571,19 @@
         <v/>
       </c>
       <c r="I44" t="str">
-        <v>2024-25</v>
-      </c>
-      <c r="J44" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K44" t="str">
         <v/>
       </c>
-      <c r="L44" t="str">
-        <v/>
-      </c>
-      <c r="M44" t="str">
-        <v/>
-      </c>
-      <c r="N44" t="str">
-        <v/>
+      <c r="L44">
+        <v>40.5</v>
+      </c>
+      <c r="M44">
+        <v>27.5</v>
+      </c>
+      <c r="N44">
+        <v>41.5</v>
       </c>
       <c r="O44" t="str">
         <v/>
@@ -6475,20 +5591,20 @@
       <c r="P44" t="str">
         <v/>
       </c>
-      <c r="Q44" t="str">
-        <v/>
-      </c>
-      <c r="S44" t="str">
-        <v/>
-      </c>
-      <c r="T44" t="str">
-        <v/>
-      </c>
-      <c r="U44" t="str">
-        <v/>
-      </c>
-      <c r="V44" t="str">
-        <v/>
+      <c r="Q44">
+        <v>19.5</v>
+      </c>
+      <c r="S44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>44.5</v>
+      </c>
+      <c r="U44">
+        <v>24</v>
+      </c>
+      <c r="V44">
+        <v>40</v>
       </c>
       <c r="W44" t="str">
         <v/>
@@ -6568,19 +5684,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v/>
+        <v>002419</v>
       </c>
       <c r="B45" t="str">
-        <v/>
+        <v>Zamin</v>
       </c>
       <c r="C45" t="str">
-        <v/>
-      </c>
-      <c r="D45" t="str">
-        <v/>
+        <v>Mehmood Hussain</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
       </c>
       <c r="E45" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F45" t="str">
         <v/>
@@ -6592,22 +5708,19 @@
         <v/>
       </c>
       <c r="I45" t="str">
-        <v/>
-      </c>
-      <c r="J45" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K45" t="str">
         <v/>
       </c>
-      <c r="L45" t="str">
-        <v/>
-      </c>
-      <c r="M45" t="str">
-        <v/>
-      </c>
-      <c r="N45" t="str">
-        <v/>
+      <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>28</v>
+      </c>
+      <c r="N45">
+        <v>20.5</v>
       </c>
       <c r="O45" t="str">
         <v/>
@@ -6615,20 +5728,20 @@
       <c r="P45" t="str">
         <v/>
       </c>
-      <c r="Q45" t="str">
-        <v/>
-      </c>
-      <c r="S45" t="str">
-        <v/>
-      </c>
-      <c r="T45" t="str">
-        <v/>
-      </c>
-      <c r="U45" t="str">
-        <v/>
+      <c r="Q45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>38.5</v>
+      </c>
+      <c r="T45">
+        <v>18</v>
+      </c>
+      <c r="U45">
+        <v>11.5</v>
       </c>
       <c r="V45">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W45" t="str">
         <v/>
@@ -6708,19 +5821,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v/>
+        <v>002458</v>
       </c>
       <c r="B46" t="str">
-        <v/>
+        <v>Muhammad Umer</v>
       </c>
       <c r="C46" t="str">
-        <v/>
-      </c>
-      <c r="D46" t="str">
-        <v/>
+        <v>Siyar Khan</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
       </c>
       <c r="E46" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F46" t="str">
         <v/>
@@ -6732,10 +5845,7 @@
         <v/>
       </c>
       <c r="I46" t="str">
-        <v/>
-      </c>
-      <c r="J46" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K46" t="str">
         <v/>
@@ -6860,7 +5970,7 @@
         <v/>
       </c>
       <c r="E47" t="str">
-        <v>1st Term</v>
+        <v>December Test</v>
       </c>
       <c r="F47" t="str">
         <v/>
@@ -6872,10 +5982,7 @@
         <v/>
       </c>
       <c r="I47" t="str">
-        <v/>
-      </c>
-      <c r="J47" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K47" t="str">
         <v/>
@@ -6999,6 +6106,9 @@
       <c r="D48" t="str">
         <v/>
       </c>
+      <c r="E48" t="str">
+        <v>December Test</v>
+      </c>
       <c r="F48" t="str">
         <v/>
       </c>
@@ -7009,10 +6119,7 @@
         <v/>
       </c>
       <c r="I48" t="str">
-        <v/>
-      </c>
-      <c r="J48" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K48" t="str">
         <v/>
@@ -7124,18 +6231,21 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49">
-        <v>2445</v>
+      <c r="A49" t="str">
+        <v>002459</v>
       </c>
       <c r="B49" t="str">
-        <v xml:space="preserve">me </v>
+        <v>Rubab Akhtar</v>
       </c>
       <c r="C49" t="str">
-        <v/>
+        <v>Akhtar</v>
       </c>
       <c r="D49" t="str">
         <v>9 (Arts Group)</v>
       </c>
+      <c r="E49" t="str">
+        <v>December Test</v>
+      </c>
       <c r="F49" t="str">
         <v/>
       </c>
@@ -7146,10 +6256,7 @@
         <v/>
       </c>
       <c r="I49" t="str">
-        <v/>
-      </c>
-      <c r="J49" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K49" t="str">
         <v/>
@@ -7276,6 +6383,9 @@
       <c r="D50" t="str">
         <v/>
       </c>
+      <c r="E50" t="str">
+        <v>December Test</v>
+      </c>
       <c r="F50" t="str">
         <v/>
       </c>
@@ -7286,10 +6396,7 @@
         <v/>
       </c>
       <c r="I50" t="str">
-        <v/>
-      </c>
-      <c r="J50" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K50" t="str">
         <v/>
@@ -7402,16 +6509,19 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v/>
+        <v>002401</v>
       </c>
       <c r="B51" t="str">
-        <v/>
+        <v xml:space="preserve">Maryam Fatima              </v>
       </c>
       <c r="C51" t="str">
-        <v/>
-      </c>
-      <c r="D51" t="str">
-        <v/>
+        <v>Muhammad Sohail Satti (Late)</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="str">
+        <v>December Test</v>
       </c>
       <c r="F51" t="str">
         <v/>
@@ -7423,22 +6533,19 @@
         <v/>
       </c>
       <c r="I51" t="str">
-        <v/>
-      </c>
-      <c r="J51" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K51" t="str">
         <v/>
       </c>
-      <c r="L51" t="str">
-        <v/>
-      </c>
-      <c r="M51" t="str">
-        <v/>
-      </c>
-      <c r="N51" t="str">
-        <v/>
+      <c r="L51">
+        <v>40.5</v>
+      </c>
+      <c r="M51">
+        <v>33</v>
+      </c>
+      <c r="N51">
+        <v>45.5</v>
       </c>
       <c r="O51" t="str">
         <v/>
@@ -7446,20 +6553,20 @@
       <c r="P51" t="str">
         <v/>
       </c>
-      <c r="Q51" t="str">
-        <v/>
-      </c>
-      <c r="S51" t="str">
-        <v/>
-      </c>
-      <c r="T51" t="str">
-        <v/>
-      </c>
-      <c r="U51" t="str">
-        <v/>
-      </c>
-      <c r="V51" t="str">
-        <v/>
+      <c r="Q51">
+        <v>42</v>
+      </c>
+      <c r="S51">
+        <v>41.5</v>
+      </c>
+      <c r="T51">
+        <v>31</v>
+      </c>
+      <c r="U51">
+        <v>22</v>
+      </c>
+      <c r="V51">
+        <v>45</v>
       </c>
       <c r="W51" t="str">
         <v/>
@@ -7539,16 +6646,19 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v/>
+        <v>002423</v>
       </c>
       <c r="B52" t="str">
-        <v/>
+        <v xml:space="preserve"> Abdul Ahad</v>
       </c>
       <c r="C52" t="str">
-        <v/>
-      </c>
-      <c r="D52" t="str">
-        <v/>
+        <v>Abdul Wajid</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="str">
+        <v>December Test</v>
       </c>
       <c r="F52" t="str">
         <v/>
@@ -7560,22 +6670,19 @@
         <v/>
       </c>
       <c r="I52" t="str">
-        <v/>
-      </c>
-      <c r="J52" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K52" t="str">
         <v/>
       </c>
-      <c r="L52" t="str">
-        <v/>
-      </c>
-      <c r="M52" t="str">
-        <v/>
-      </c>
-      <c r="N52" t="str">
-        <v/>
+      <c r="L52">
+        <v>45</v>
+      </c>
+      <c r="M52">
+        <v>22.5</v>
+      </c>
+      <c r="N52">
+        <v>37</v>
       </c>
       <c r="O52" t="str">
         <v/>
@@ -7583,20 +6690,20 @@
       <c r="P52" t="str">
         <v/>
       </c>
-      <c r="Q52" t="str">
-        <v/>
-      </c>
-      <c r="S52" t="str">
-        <v/>
-      </c>
-      <c r="T52" t="str">
-        <v/>
-      </c>
-      <c r="U52" t="str">
-        <v/>
-      </c>
-      <c r="V52" t="str">
-        <v/>
+      <c r="Q52">
+        <v>47</v>
+      </c>
+      <c r="S52">
+        <v>30</v>
+      </c>
+      <c r="T52">
+        <v>39.5</v>
+      </c>
+      <c r="U52">
+        <v>24</v>
+      </c>
+      <c r="V52">
+        <v>47</v>
       </c>
       <c r="W52" t="str">
         <v/>
@@ -7676,16 +6783,19 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v/>
+        <v>002435</v>
       </c>
       <c r="B53" t="str">
-        <v/>
+        <v>Moeez</v>
       </c>
       <c r="C53" t="str">
-        <v/>
-      </c>
-      <c r="D53" t="str">
-        <v/>
+        <v>Adnan Gujjar</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="str">
+        <v>December Test</v>
       </c>
       <c r="F53" t="str">
         <v/>
@@ -7697,22 +6807,19 @@
         <v/>
       </c>
       <c r="I53" t="str">
-        <v/>
-      </c>
-      <c r="J53" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K53" t="str">
         <v/>
       </c>
-      <c r="L53" t="str">
-        <v/>
-      </c>
-      <c r="M53" t="str">
-        <v/>
-      </c>
-      <c r="N53" t="str">
-        <v/>
+      <c r="L53">
+        <v>42</v>
+      </c>
+      <c r="M53">
+        <v>11.5</v>
+      </c>
+      <c r="N53">
+        <v>42</v>
       </c>
       <c r="O53" t="str">
         <v/>
@@ -7720,20 +6827,20 @@
       <c r="P53" t="str">
         <v/>
       </c>
-      <c r="Q53" t="str">
-        <v/>
-      </c>
-      <c r="S53" t="str">
-        <v/>
-      </c>
-      <c r="T53" t="str">
-        <v/>
-      </c>
-      <c r="U53" t="str">
-        <v/>
-      </c>
-      <c r="V53" t="str">
-        <v/>
+      <c r="Q53">
+        <v>48</v>
+      </c>
+      <c r="S53">
+        <v>36</v>
+      </c>
+      <c r="T53">
+        <v>30.5</v>
+      </c>
+      <c r="U53">
+        <v>23.5</v>
+      </c>
+      <c r="V53">
+        <v>45</v>
       </c>
       <c r="W53" t="str">
         <v/>
@@ -7813,16 +6920,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v/>
+        <v>002444</v>
       </c>
       <c r="B54" t="str">
-        <v/>
+        <v>Laraib Ozaib</v>
       </c>
       <c r="C54" t="str">
-        <v/>
-      </c>
-      <c r="D54" t="str">
-        <v/>
+        <v>Ozaib Hussain</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="str">
+        <v>December Test</v>
       </c>
       <c r="F54" t="str">
         <v/>
@@ -7834,22 +6944,19 @@
         <v/>
       </c>
       <c r="I54" t="str">
-        <v/>
-      </c>
-      <c r="J54" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K54" t="str">
         <v/>
       </c>
-      <c r="L54" t="str">
-        <v/>
-      </c>
-      <c r="M54" t="str">
-        <v/>
-      </c>
-      <c r="N54" t="str">
-        <v/>
+      <c r="L54">
+        <v>33.5</v>
+      </c>
+      <c r="M54">
+        <v>18</v>
+      </c>
+      <c r="N54">
+        <v>27</v>
       </c>
       <c r="O54" t="str">
         <v/>
@@ -7857,20 +6964,20 @@
       <c r="P54" t="str">
         <v/>
       </c>
-      <c r="Q54" t="str">
-        <v/>
-      </c>
-      <c r="S54" t="str">
-        <v/>
-      </c>
-      <c r="T54" t="str">
-        <v/>
-      </c>
-      <c r="U54" t="str">
-        <v/>
-      </c>
-      <c r="V54" t="str">
-        <v/>
+      <c r="Q54">
+        <v>38.5</v>
+      </c>
+      <c r="S54">
+        <v>25.5</v>
+      </c>
+      <c r="T54">
+        <v>21</v>
+      </c>
+      <c r="U54">
+        <v>14.5</v>
+      </c>
+      <c r="V54">
+        <v>40</v>
       </c>
       <c r="W54" t="str">
         <v/>
@@ -7950,16 +7057,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v/>
+        <v>002445</v>
       </c>
       <c r="B55" t="str">
-        <v/>
+        <v>Maheen Akhtar</v>
       </c>
       <c r="C55" t="str">
-        <v/>
-      </c>
-      <c r="D55" t="str">
-        <v/>
+        <v>Naeem Akhtar</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="str">
+        <v>December Test</v>
       </c>
       <c r="F55" t="str">
         <v/>
@@ -7971,22 +7081,19 @@
         <v/>
       </c>
       <c r="I55" t="str">
-        <v/>
-      </c>
-      <c r="J55" t="str">
-        <v/>
+        <v>2025-26</v>
       </c>
       <c r="K55" t="str">
         <v/>
       </c>
-      <c r="L55" t="str">
-        <v/>
-      </c>
-      <c r="M55" t="str">
-        <v/>
-      </c>
-      <c r="N55" t="str">
-        <v/>
+      <c r="L55">
+        <v>31</v>
+      </c>
+      <c r="M55">
+        <v>36</v>
+      </c>
+      <c r="N55">
+        <v>40</v>
       </c>
       <c r="O55" t="str">
         <v/>
@@ -7994,20 +7101,20 @@
       <c r="P55" t="str">
         <v/>
       </c>
-      <c r="Q55" t="str">
-        <v/>
-      </c>
-      <c r="S55" t="str">
-        <v/>
-      </c>
-      <c r="T55" t="str">
-        <v/>
-      </c>
-      <c r="U55" t="str">
-        <v/>
-      </c>
-      <c r="V55" t="str">
-        <v/>
+      <c r="Q55">
+        <v>39</v>
+      </c>
+      <c r="S55">
+        <v>45</v>
+      </c>
+      <c r="T55">
+        <v>35</v>
+      </c>
+      <c r="U55">
+        <v>37.5</v>
+      </c>
+      <c r="V55">
+        <v>35</v>
       </c>
       <c r="W55" t="str">
         <v/>
@@ -8087,16 +7194,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v/>
+        <v>002513</v>
       </c>
       <c r="B56" t="str">
-        <v/>
+        <v>Abdul Rahman</v>
       </c>
       <c r="C56" t="str">
-        <v/>
-      </c>
-      <c r="D56" t="str">
-        <v/>
+        <v>Azam Shahzad  (Late)</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="str">
+        <v>December Test</v>
       </c>
       <c r="F56" t="str">
         <v/>
@@ -8107,20 +7217,20 @@
       <c r="H56" t="str">
         <v/>
       </c>
-      <c r="J56" t="str">
-        <v/>
+      <c r="I56" t="str">
+        <v>2025-26</v>
       </c>
       <c r="K56" t="str">
         <v/>
       </c>
-      <c r="L56" t="str">
-        <v/>
-      </c>
-      <c r="M56" t="str">
-        <v/>
-      </c>
-      <c r="N56" t="str">
-        <v/>
+      <c r="L56">
+        <v>17.5</v>
+      </c>
+      <c r="M56">
+        <v>15.5</v>
+      </c>
+      <c r="N56">
+        <v>35</v>
       </c>
       <c r="O56" t="str">
         <v/>
@@ -8128,20 +7238,20 @@
       <c r="P56" t="str">
         <v/>
       </c>
-      <c r="Q56" t="str">
-        <v/>
-      </c>
-      <c r="S56" t="str">
-        <v/>
-      </c>
-      <c r="T56" t="str">
-        <v/>
-      </c>
-      <c r="U56" t="str">
-        <v/>
-      </c>
-      <c r="V56" t="str">
-        <v/>
+      <c r="Q56">
+        <v>36</v>
+      </c>
+      <c r="S56">
+        <v>20.5</v>
+      </c>
+      <c r="T56">
+        <v>11.5</v>
+      </c>
+      <c r="U56">
+        <v>19</v>
+      </c>
+      <c r="V56">
+        <v>40</v>
       </c>
       <c r="W56" t="str">
         <v/>
@@ -8216,12 +7326,2048 @@
         <v/>
       </c>
       <c r="AV56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>002518</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Shawaiz</v>
+      </c>
+      <c r="E57" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I57" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L57">
+        <v>41</v>
+      </c>
+      <c r="M57">
+        <v>21</v>
+      </c>
+      <c r="N57">
+        <v>39</v>
+      </c>
+      <c r="Q57">
+        <v>46</v>
+      </c>
+      <c r="S57">
+        <v>43</v>
+      </c>
+      <c r="T57">
+        <v>36.5</v>
+      </c>
+      <c r="U57">
+        <v>25</v>
+      </c>
+      <c r="V57">
+        <v>40</v>
+      </c>
+      <c r="AP57" t="str">
+        <v/>
+      </c>
+      <c r="AQ57" t="str">
+        <v/>
+      </c>
+      <c r="AR57" t="str">
+        <v/>
+      </c>
+      <c r="AS57" t="str">
+        <v/>
+      </c>
+      <c r="AT57" t="str">
+        <v/>
+      </c>
+      <c r="AU57" t="str">
+        <v/>
+      </c>
+      <c r="AV57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I58" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP58" t="str">
+        <v/>
+      </c>
+      <c r="AQ58" t="str">
+        <v/>
+      </c>
+      <c r="AR58" t="str">
+        <v/>
+      </c>
+      <c r="AS58" t="str">
+        <v/>
+      </c>
+      <c r="AT58" t="str">
+        <v/>
+      </c>
+      <c r="AU58" t="str">
+        <v/>
+      </c>
+      <c r="AV58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I59" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP59" t="str">
+        <v/>
+      </c>
+      <c r="AQ59" t="str">
+        <v/>
+      </c>
+      <c r="AR59" t="str">
+        <v/>
+      </c>
+      <c r="AS59" t="str">
+        <v/>
+      </c>
+      <c r="AT59" t="str">
+        <v/>
+      </c>
+      <c r="AU59" t="str">
+        <v/>
+      </c>
+      <c r="AV59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I60" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP60" t="str">
+        <v/>
+      </c>
+      <c r="AQ60" t="str">
+        <v/>
+      </c>
+      <c r="AR60" t="str">
+        <v/>
+      </c>
+      <c r="AS60" t="str">
+        <v/>
+      </c>
+      <c r="AT60" t="str">
+        <v/>
+      </c>
+      <c r="AU60" t="str">
+        <v/>
+      </c>
+      <c r="AV60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>002418</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Zain</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Mehmood Hussain</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I61" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L61">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>37</v>
+      </c>
+      <c r="O61">
+        <v>29</v>
+      </c>
+      <c r="Q61">
+        <v>42</v>
+      </c>
+      <c r="S61">
+        <v>24</v>
+      </c>
+      <c r="T61">
+        <v>41</v>
+      </c>
+      <c r="V61">
+        <v>20</v>
+      </c>
+      <c r="AP61" t="str">
+        <v/>
+      </c>
+      <c r="AQ61" t="str">
+        <v/>
+      </c>
+      <c r="AR61" t="str">
+        <v/>
+      </c>
+      <c r="AS61" t="str">
+        <v/>
+      </c>
+      <c r="AT61" t="str">
+        <v/>
+      </c>
+      <c r="AU61" t="str">
+        <v/>
+      </c>
+      <c r="AV61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>002424</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Raja Awais</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Rashid Mehmood</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I62" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L62">
+        <v>36</v>
+      </c>
+      <c r="M62">
+        <v>16</v>
+      </c>
+      <c r="N62">
+        <v>36</v>
+      </c>
+      <c r="O62">
+        <v>48</v>
+      </c>
+      <c r="Q62">
+        <v>48</v>
+      </c>
+      <c r="S62">
+        <v>26</v>
+      </c>
+      <c r="T62">
+        <v>44</v>
+      </c>
+      <c r="V62">
+        <v>45</v>
+      </c>
+      <c r="AP62" t="str">
+        <v/>
+      </c>
+      <c r="AQ62" t="str">
+        <v/>
+      </c>
+      <c r="AR62" t="str">
+        <v/>
+      </c>
+      <c r="AS62" t="str">
+        <v/>
+      </c>
+      <c r="AT62" t="str">
+        <v/>
+      </c>
+      <c r="AU62" t="str">
+        <v/>
+      </c>
+      <c r="AV62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>002428</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Ishal</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Kamran Ali Satti</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I63" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L63">
+        <v>32</v>
+      </c>
+      <c r="M63">
+        <v>31</v>
+      </c>
+      <c r="N63">
+        <v>45.5</v>
+      </c>
+      <c r="O63">
+        <v>36.5</v>
+      </c>
+      <c r="Q63">
+        <v>46.5</v>
+      </c>
+      <c r="S63">
+        <v>28.5</v>
+      </c>
+      <c r="T63">
+        <v>43</v>
+      </c>
+      <c r="V63">
+        <v>40</v>
+      </c>
+      <c r="AP63" t="str">
+        <v/>
+      </c>
+      <c r="AQ63" t="str">
+        <v/>
+      </c>
+      <c r="AR63" t="str">
+        <v/>
+      </c>
+      <c r="AS63" t="str">
+        <v/>
+      </c>
+      <c r="AT63" t="str">
+        <v/>
+      </c>
+      <c r="AU63" t="str">
+        <v/>
+      </c>
+      <c r="AV63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>002437</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Huzaifa Farhan</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Raja Farhan Arshad</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I64" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L64">
+        <v>11</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>27</v>
+      </c>
+      <c r="O64">
+        <v>25</v>
+      </c>
+      <c r="Q64">
+        <v>8</v>
+      </c>
+      <c r="S64">
+        <v>13</v>
+      </c>
+      <c r="T64">
+        <v>4</v>
+      </c>
+      <c r="V64">
+        <v>30</v>
+      </c>
+      <c r="AP64" t="str">
+        <v/>
+      </c>
+      <c r="AQ64" t="str">
+        <v/>
+      </c>
+      <c r="AR64" t="str">
+        <v/>
+      </c>
+      <c r="AS64" t="str">
+        <v/>
+      </c>
+      <c r="AT64" t="str">
+        <v/>
+      </c>
+      <c r="AU64" t="str">
+        <v/>
+      </c>
+      <c r="AV64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>002461</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Zakria</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Muhammad Ashraf</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I65" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L65">
+        <v>28</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>20</v>
+      </c>
+      <c r="Q65">
+        <v>47</v>
+      </c>
+      <c r="S65">
+        <v>25</v>
+      </c>
+      <c r="T65">
+        <v>30</v>
+      </c>
+      <c r="V65">
+        <v>40</v>
+      </c>
+      <c r="AP65" t="str">
+        <v/>
+      </c>
+      <c r="AQ65" t="str">
+        <v/>
+      </c>
+      <c r="AR65" t="str">
+        <v/>
+      </c>
+      <c r="AS65" t="str">
+        <v/>
+      </c>
+      <c r="AT65" t="str">
+        <v/>
+      </c>
+      <c r="AU65" t="str">
+        <v/>
+      </c>
+      <c r="AV65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>002502</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Eman Fatima</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Aftab Ishaq (Late)</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I66" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L66">
+        <v>43.5</v>
+      </c>
+      <c r="M66">
+        <v>44</v>
+      </c>
+      <c r="N66">
+        <v>48.5</v>
+      </c>
+      <c r="O66">
+        <v>47.5</v>
+      </c>
+      <c r="Q66">
+        <v>48</v>
+      </c>
+      <c r="S66">
+        <v>33</v>
+      </c>
+      <c r="T66">
+        <v>47.5</v>
+      </c>
+      <c r="V66">
+        <v>43</v>
+      </c>
+      <c r="AP66" t="str">
+        <v/>
+      </c>
+      <c r="AQ66" t="str">
+        <v/>
+      </c>
+      <c r="AR66" t="str">
+        <v/>
+      </c>
+      <c r="AS66" t="str">
+        <v/>
+      </c>
+      <c r="AT66" t="str">
+        <v/>
+      </c>
+      <c r="AU66" t="str">
+        <v/>
+      </c>
+      <c r="AV66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>002422</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Abdullah Hifaz</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Imran Khan</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I67" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP67" t="str">
+        <v/>
+      </c>
+      <c r="AQ67" t="str">
+        <v/>
+      </c>
+      <c r="AR67" t="str">
+        <v/>
+      </c>
+      <c r="AS67" t="str">
+        <v/>
+      </c>
+      <c r="AT67" t="str">
+        <v/>
+      </c>
+      <c r="AU67" t="str">
+        <v/>
+      </c>
+      <c r="AV67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I68" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP68" t="str">
+        <v/>
+      </c>
+      <c r="AQ68" t="str">
+        <v/>
+      </c>
+      <c r="AR68" t="str">
+        <v/>
+      </c>
+      <c r="AS68" t="str">
+        <v/>
+      </c>
+      <c r="AT68" t="str">
+        <v/>
+      </c>
+      <c r="AU68" t="str">
+        <v/>
+      </c>
+      <c r="AV68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I69" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP69" t="str">
+        <v/>
+      </c>
+      <c r="AQ69" t="str">
+        <v/>
+      </c>
+      <c r="AR69" t="str">
+        <v/>
+      </c>
+      <c r="AS69" t="str">
+        <v/>
+      </c>
+      <c r="AT69" t="str">
+        <v/>
+      </c>
+      <c r="AU69" t="str">
+        <v/>
+      </c>
+      <c r="AV69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I70" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP70" t="str">
+        <v/>
+      </c>
+      <c r="AQ70" t="str">
+        <v/>
+      </c>
+      <c r="AR70" t="str">
+        <v/>
+      </c>
+      <c r="AS70" t="str">
+        <v/>
+      </c>
+      <c r="AT70" t="str">
+        <v/>
+      </c>
+      <c r="AU70" t="str">
+        <v/>
+      </c>
+      <c r="AV70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I71" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP71" t="str">
+        <v/>
+      </c>
+      <c r="AQ71" t="str">
+        <v/>
+      </c>
+      <c r="AR71" t="str">
+        <v/>
+      </c>
+      <c r="AS71" t="str">
+        <v/>
+      </c>
+      <c r="AT71" t="str">
+        <v/>
+      </c>
+      <c r="AU71" t="str">
+        <v/>
+      </c>
+      <c r="AV71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>002427</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Makhad</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Kamran Ali Satti</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I72" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L72">
+        <v>12</v>
+      </c>
+      <c r="M72">
+        <v>28</v>
+      </c>
+      <c r="N72">
+        <v>43</v>
+      </c>
+      <c r="O72">
+        <v>22</v>
+      </c>
+      <c r="Q72">
+        <v>30</v>
+      </c>
+      <c r="S72">
+        <v>44</v>
+      </c>
+      <c r="T72">
+        <v>45</v>
+      </c>
+      <c r="V72">
+        <v>40</v>
+      </c>
+      <c r="AP72" t="str">
+        <v/>
+      </c>
+      <c r="AQ72" t="str">
+        <v/>
+      </c>
+      <c r="AR72" t="str">
+        <v/>
+      </c>
+      <c r="AS72" t="str">
+        <v/>
+      </c>
+      <c r="AT72" t="str">
+        <v/>
+      </c>
+      <c r="AU72" t="str">
+        <v/>
+      </c>
+      <c r="AV72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>002432</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Faizan Ali 6th</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Sajjad</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I73" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L73">
+        <v>29</v>
+      </c>
+      <c r="M73">
+        <v>25</v>
+      </c>
+      <c r="N73">
+        <v>53</v>
+      </c>
+      <c r="O73">
+        <v>43</v>
+      </c>
+      <c r="Q73">
+        <v>44</v>
+      </c>
+      <c r="S73">
+        <v>49</v>
+      </c>
+      <c r="T73">
+        <v>49</v>
+      </c>
+      <c r="V73">
+        <v>40</v>
+      </c>
+      <c r="AP73" t="str">
+        <v/>
+      </c>
+      <c r="AQ73" t="str">
+        <v/>
+      </c>
+      <c r="AR73" t="str">
+        <v/>
+      </c>
+      <c r="AS73" t="str">
+        <v/>
+      </c>
+      <c r="AT73" t="str">
+        <v/>
+      </c>
+      <c r="AU73" t="str">
+        <v/>
+      </c>
+      <c r="AV73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>002512</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Hafsa Azam</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Azam Shahzad  (Late)</v>
+      </c>
+      <c r="D74">
+        <v>7</v>
+      </c>
+      <c r="E74" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I74" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="M74">
+        <v>45.5</v>
+      </c>
+      <c r="N74">
+        <v>37</v>
+      </c>
+      <c r="O74">
+        <v>32.5</v>
+      </c>
+      <c r="Q74">
+        <v>48</v>
+      </c>
+      <c r="S74">
+        <v>30</v>
+      </c>
+      <c r="T74">
+        <v>27</v>
+      </c>
+      <c r="V74">
+        <v>45</v>
+      </c>
+      <c r="AP74" t="str">
+        <v/>
+      </c>
+      <c r="AQ74" t="str">
+        <v/>
+      </c>
+      <c r="AR74" t="str">
+        <v/>
+      </c>
+      <c r="AS74" t="str">
+        <v/>
+      </c>
+      <c r="AT74" t="str">
+        <v/>
+      </c>
+      <c r="AU74" t="str">
+        <v/>
+      </c>
+      <c r="AV74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>002448</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Mudasir majeed</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Abdul Majeed</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+      <c r="E75" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I75" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L75">
+        <v>26</v>
+      </c>
+      <c r="M75">
+        <v>32</v>
+      </c>
+      <c r="N75">
+        <v>31</v>
+      </c>
+      <c r="O75">
+        <v>33</v>
+      </c>
+      <c r="Q75">
+        <v>35</v>
+      </c>
+      <c r="S75">
+        <v>43</v>
+      </c>
+      <c r="T75">
+        <v>46</v>
+      </c>
+      <c r="V75">
+        <v>35</v>
+      </c>
+      <c r="AP75" t="str">
+        <v/>
+      </c>
+      <c r="AQ75" t="str">
+        <v/>
+      </c>
+      <c r="AR75" t="str">
+        <v/>
+      </c>
+      <c r="AS75" t="str">
+        <v/>
+      </c>
+      <c r="AT75" t="str">
+        <v/>
+      </c>
+      <c r="AU75" t="str">
+        <v/>
+      </c>
+      <c r="AV75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>002449</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Mehar ali</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Azhar Mehmood</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I76" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="L76">
+        <v>8</v>
+      </c>
+      <c r="AP76" t="str">
+        <v/>
+      </c>
+      <c r="AQ76" t="str">
+        <v/>
+      </c>
+      <c r="AR76" t="str">
+        <v/>
+      </c>
+      <c r="AS76" t="str">
+        <v/>
+      </c>
+      <c r="AT76" t="str">
+        <v/>
+      </c>
+      <c r="AU76" t="str">
+        <v/>
+      </c>
+      <c r="AV76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I77" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP77" t="str">
+        <v/>
+      </c>
+      <c r="AQ77" t="str">
+        <v/>
+      </c>
+      <c r="AR77" t="str">
+        <v/>
+      </c>
+      <c r="AS77" t="str">
+        <v/>
+      </c>
+      <c r="AT77" t="str">
+        <v/>
+      </c>
+      <c r="AU77" t="str">
+        <v/>
+      </c>
+      <c r="AV77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I78" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP78" t="str">
+        <v/>
+      </c>
+      <c r="AQ78" t="str">
+        <v/>
+      </c>
+      <c r="AR78" t="str">
+        <v/>
+      </c>
+      <c r="AS78" t="str">
+        <v/>
+      </c>
+      <c r="AT78" t="str">
+        <v/>
+      </c>
+      <c r="AU78" t="str">
+        <v/>
+      </c>
+      <c r="AV78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I79" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP79" t="str">
+        <v/>
+      </c>
+      <c r="AQ79" t="str">
+        <v/>
+      </c>
+      <c r="AR79" t="str">
+        <v/>
+      </c>
+      <c r="AS79" t="str">
+        <v/>
+      </c>
+      <c r="AT79" t="str">
+        <v/>
+      </c>
+      <c r="AU79" t="str">
+        <v/>
+      </c>
+      <c r="AV79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I80" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP80" t="str">
+        <v/>
+      </c>
+      <c r="AQ80" t="str">
+        <v/>
+      </c>
+      <c r="AR80" t="str">
+        <v/>
+      </c>
+      <c r="AS80" t="str">
+        <v/>
+      </c>
+      <c r="AT80" t="str">
+        <v/>
+      </c>
+      <c r="AU80" t="str">
+        <v/>
+      </c>
+      <c r="AV80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>002426</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Aiman</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Kamran Ali Satti</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I81" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP81" t="str">
+        <v/>
+      </c>
+      <c r="AQ81" t="str">
+        <v/>
+      </c>
+      <c r="AR81" t="str">
+        <v/>
+      </c>
+      <c r="AS81" t="str">
+        <v/>
+      </c>
+      <c r="AT81" t="str">
+        <v/>
+      </c>
+      <c r="AU81" t="str">
+        <v/>
+      </c>
+      <c r="AV81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>002456</v>
+      </c>
+      <c r="B82" t="str">
+        <v xml:space="preserve">Saad Ali </v>
+      </c>
+      <c r="C82" t="str">
+        <v>Muhammad Asif Farooq</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I82" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP82" t="str">
+        <v/>
+      </c>
+      <c r="AQ82" t="str">
+        <v/>
+      </c>
+      <c r="AR82" t="str">
+        <v/>
+      </c>
+      <c r="AS82" t="str">
+        <v/>
+      </c>
+      <c r="AT82" t="str">
+        <v/>
+      </c>
+      <c r="AU82" t="str">
+        <v/>
+      </c>
+      <c r="AV82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>002443</v>
+      </c>
+      <c r="B83" t="str">
+        <v xml:space="preserve">zainab ibrar </v>
+      </c>
+      <c r="C83" t="str">
+        <v>Abrar Ahmed</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I83" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP83" t="str">
+        <v/>
+      </c>
+      <c r="AQ83" t="str">
+        <v/>
+      </c>
+      <c r="AR83" t="str">
+        <v/>
+      </c>
+      <c r="AS83" t="str">
+        <v/>
+      </c>
+      <c r="AT83" t="str">
+        <v/>
+      </c>
+      <c r="AU83" t="str">
+        <v/>
+      </c>
+      <c r="AV83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>002476</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Mahnoor Afrahim</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Muhammad Afrahim</v>
+      </c>
+      <c r="D84">
+        <v>8</v>
+      </c>
+      <c r="E84" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I84" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP84" t="str">
+        <v/>
+      </c>
+      <c r="AQ84" t="str">
+        <v/>
+      </c>
+      <c r="AR84" t="str">
+        <v/>
+      </c>
+      <c r="AS84" t="str">
+        <v/>
+      </c>
+      <c r="AT84" t="str">
+        <v/>
+      </c>
+      <c r="AU84" t="str">
+        <v/>
+      </c>
+      <c r="AV84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>002501</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Zoha Fatima</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Aftab Ishaq (Late)</v>
+      </c>
+      <c r="D85">
+        <v>8</v>
+      </c>
+      <c r="E85" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I85" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP85" t="str">
+        <v/>
+      </c>
+      <c r="AQ85" t="str">
+        <v/>
+      </c>
+      <c r="AR85" t="str">
+        <v/>
+      </c>
+      <c r="AS85" t="str">
+        <v/>
+      </c>
+      <c r="AT85" t="str">
+        <v/>
+      </c>
+      <c r="AU85" t="str">
+        <v/>
+      </c>
+      <c r="AV85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>002511</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Asma Azam</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Azam Shahzad  (Late)</v>
+      </c>
+      <c r="D86">
+        <v>8</v>
+      </c>
+      <c r="E86" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I86" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP86" t="str">
+        <v/>
+      </c>
+      <c r="AQ86" t="str">
+        <v/>
+      </c>
+      <c r="AR86" t="str">
+        <v/>
+      </c>
+      <c r="AS86" t="str">
+        <v/>
+      </c>
+      <c r="AT86" t="str">
+        <v/>
+      </c>
+      <c r="AU86" t="str">
+        <v/>
+      </c>
+      <c r="AV86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>002516</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Rubab Akhtar</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Naeem Akhtar</v>
+      </c>
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I87" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP87" t="str">
+        <v/>
+      </c>
+      <c r="AQ87" t="str">
+        <v/>
+      </c>
+      <c r="AR87" t="str">
+        <v/>
+      </c>
+      <c r="AS87" t="str">
+        <v/>
+      </c>
+      <c r="AT87" t="str">
+        <v/>
+      </c>
+      <c r="AU87" t="str">
+        <v/>
+      </c>
+      <c r="AV87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>002459</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Zoha Farhan</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Farhan Zaib</v>
+      </c>
+      <c r="D88">
+        <v>8</v>
+      </c>
+      <c r="E88" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I88" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP88" t="str">
+        <v/>
+      </c>
+      <c r="AQ88" t="str">
+        <v/>
+      </c>
+      <c r="AR88" t="str">
+        <v/>
+      </c>
+      <c r="AS88" t="str">
+        <v/>
+      </c>
+      <c r="AT88" t="str">
+        <v/>
+      </c>
+      <c r="AU88" t="str">
+        <v/>
+      </c>
+      <c r="AV88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I89" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP89" t="str">
+        <v/>
+      </c>
+      <c r="AQ89" t="str">
+        <v/>
+      </c>
+      <c r="AR89" t="str">
+        <v/>
+      </c>
+      <c r="AS89" t="str">
+        <v/>
+      </c>
+      <c r="AT89" t="str">
+        <v/>
+      </c>
+      <c r="AU89" t="str">
+        <v/>
+      </c>
+      <c r="AV89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I90" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP90" t="str">
+        <v/>
+      </c>
+      <c r="AQ90" t="str">
+        <v/>
+      </c>
+      <c r="AR90" t="str">
+        <v/>
+      </c>
+      <c r="AS90" t="str">
+        <v/>
+      </c>
+      <c r="AT90" t="str">
+        <v/>
+      </c>
+      <c r="AU90" t="str">
+        <v/>
+      </c>
+      <c r="AV90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I91" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP91" t="str">
+        <v/>
+      </c>
+      <c r="AQ91" t="str">
+        <v/>
+      </c>
+      <c r="AR91" t="str">
+        <v/>
+      </c>
+      <c r="AS91" t="str">
+        <v/>
+      </c>
+      <c r="AT91" t="str">
+        <v/>
+      </c>
+      <c r="AU91" t="str">
+        <v/>
+      </c>
+      <c r="AV91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I92" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP92" t="str">
+        <v/>
+      </c>
+      <c r="AQ92" t="str">
+        <v/>
+      </c>
+      <c r="AR92" t="str">
+        <v/>
+      </c>
+      <c r="AS92" t="str">
+        <v/>
+      </c>
+      <c r="AT92" t="str">
+        <v/>
+      </c>
+      <c r="AU92" t="str">
+        <v/>
+      </c>
+      <c r="AV92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>002446</v>
+      </c>
+      <c r="B93" t="str">
+        <v xml:space="preserve"> Mudassir </v>
+      </c>
+      <c r="C93" t="str">
+        <v>Zahid</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I93" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP93" t="str">
+        <v/>
+      </c>
+      <c r="AQ93" t="str">
+        <v/>
+      </c>
+      <c r="AR93" t="str">
+        <v/>
+      </c>
+      <c r="AS93" t="str">
+        <v/>
+      </c>
+      <c r="AT93" t="str">
+        <v/>
+      </c>
+      <c r="AU93" t="str">
+        <v/>
+      </c>
+      <c r="AV93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>002453</v>
+      </c>
+      <c r="B94" t="str">
+        <v xml:space="preserve">Raja Manan </v>
+      </c>
+      <c r="C94" t="str">
+        <v>Raja Sajjad</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I94" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP94" t="str">
+        <v/>
+      </c>
+      <c r="AQ94" t="str">
+        <v/>
+      </c>
+      <c r="AR94" t="str">
+        <v/>
+      </c>
+      <c r="AS94" t="str">
+        <v/>
+      </c>
+      <c r="AT94" t="str">
+        <v/>
+      </c>
+      <c r="AU94" t="str">
+        <v/>
+      </c>
+      <c r="AV94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>002520</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Atiq ur rahman</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Muhammad Ikram Malik</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="E95" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I95" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP95" t="str">
+        <v/>
+      </c>
+      <c r="AQ95" t="str">
+        <v/>
+      </c>
+      <c r="AR95" t="str">
+        <v/>
+      </c>
+      <c r="AS95" t="str">
+        <v/>
+      </c>
+      <c r="AT95" t="str">
+        <v/>
+      </c>
+      <c r="AU95" t="str">
+        <v/>
+      </c>
+      <c r="AV95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>002468</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Muhammad Ayan Imdad</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Syed Imdad</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I96" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP96" t="str">
+        <v/>
+      </c>
+      <c r="AQ96" t="str">
+        <v/>
+      </c>
+      <c r="AR96" t="str">
+        <v/>
+      </c>
+      <c r="AS96" t="str">
+        <v/>
+      </c>
+      <c r="AT96" t="str">
+        <v/>
+      </c>
+      <c r="AU96" t="str">
+        <v/>
+      </c>
+      <c r="AV96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I97" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP97" t="str">
+        <v/>
+      </c>
+      <c r="AQ97" t="str">
+        <v/>
+      </c>
+      <c r="AR97" t="str">
+        <v/>
+      </c>
+      <c r="AS97" t="str">
+        <v/>
+      </c>
+      <c r="AT97" t="str">
+        <v/>
+      </c>
+      <c r="AU97" t="str">
+        <v/>
+      </c>
+      <c r="AV97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I98" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP98" t="str">
+        <v/>
+      </c>
+      <c r="AQ98" t="str">
+        <v/>
+      </c>
+      <c r="AR98" t="str">
+        <v/>
+      </c>
+      <c r="AS98" t="str">
+        <v/>
+      </c>
+      <c r="AT98" t="str">
+        <v/>
+      </c>
+      <c r="AU98" t="str">
+        <v/>
+      </c>
+      <c r="AV98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I99" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP99" t="str">
+        <v/>
+      </c>
+      <c r="AQ99" t="str">
+        <v/>
+      </c>
+      <c r="AR99" t="str">
+        <v/>
+      </c>
+      <c r="AS99" t="str">
+        <v/>
+      </c>
+      <c r="AT99" t="str">
+        <v/>
+      </c>
+      <c r="AU99" t="str">
+        <v/>
+      </c>
+      <c r="AV99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>002447</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Nayab Zahid</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Zahid</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I100" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP100" t="str">
+        <v/>
+      </c>
+      <c r="AQ100" t="str">
+        <v/>
+      </c>
+      <c r="AR100" t="str">
+        <v/>
+      </c>
+      <c r="AS100" t="str">
+        <v/>
+      </c>
+      <c r="AT100" t="str">
+        <v/>
+      </c>
+      <c r="AU100" t="str">
+        <v/>
+      </c>
+      <c r="AV100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>002457</v>
+      </c>
+      <c r="B101" t="str">
+        <v xml:space="preserve"> Haider Ali</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Muhammad Asif Farooq</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101" t="str">
+        <v>December Test</v>
+      </c>
+      <c r="I101" t="str">
+        <v>2025-26</v>
+      </c>
+      <c r="AP101" t="str">
+        <v/>
+      </c>
+      <c r="AQ101" t="str">
+        <v/>
+      </c>
+      <c r="AR101" t="str">
+        <v/>
+      </c>
+      <c r="AS101" t="str">
+        <v/>
+      </c>
+      <c r="AT101" t="str">
+        <v/>
+      </c>
+      <c r="AU101" t="str">
+        <v/>
+      </c>
+      <c r="AV101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>7964</v>
+      </c>
+      <c r="B102" t="str">
+        <v/>
+      </c>
+      <c r="C102" t="str">
+        <v/>
+      </c>
+      <c r="D102" t="str">
+        <v/>
+      </c>
+      <c r="E102" t="str">
+        <v>1st</v>
+      </c>
+      <c r="F102" t="str">
+        <v/>
+      </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+      <c r="H102" t="str">
+        <v/>
+      </c>
+      <c r="I102" t="str">
+        <v/>
+      </c>
+      <c r="J102" t="str">
+        <v/>
+      </c>
+      <c r="K102" t="str">
+        <v/>
+      </c>
+      <c r="L102" t="str">
+        <v>75</v>
+      </c>
+      <c r="M102" t="str">
+        <v>75</v>
+      </c>
+      <c r="N102" t="str">
+        <v>75</v>
+      </c>
+      <c r="O102" t="str">
+        <v/>
+      </c>
+      <c r="P102" t="str">
+        <v/>
+      </c>
+      <c r="Q102" t="str">
+        <v>75</v>
+      </c>
+      <c r="R102" t="str">
+        <v>75</v>
+      </c>
+      <c r="S102" t="str">
+        <v>60</v>
+      </c>
+      <c r="T102" t="str">
+        <v/>
+      </c>
+      <c r="U102" t="str">
+        <v/>
+      </c>
+      <c r="V102" t="str">
+        <v/>
+      </c>
+      <c r="W102" t="str">
+        <v/>
+      </c>
+      <c r="X102" t="str">
+        <v/>
+      </c>
+      <c r="Y102" t="str">
+        <v/>
+      </c>
+      <c r="Z102" t="str">
+        <v>75</v>
+      </c>
+      <c r="AA102" t="str">
+        <v/>
+      </c>
+      <c r="AB102" t="str">
+        <v>75</v>
+      </c>
+      <c r="AC102" t="str">
+        <v/>
+      </c>
+      <c r="AD102" t="str">
+        <v/>
+      </c>
+      <c r="AE102" t="str">
+        <v/>
+      </c>
+      <c r="AF102" t="str">
+        <v/>
+      </c>
+      <c r="AG102" t="str">
+        <v/>
+      </c>
+      <c r="AH102" t="str">
+        <v/>
+      </c>
+      <c r="AI102" t="str">
+        <v>585</v>
+      </c>
+      <c r="AJ102" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="AK102" t="str">
+        <v>A+</v>
+      </c>
+      <c r="AL102" t="str">
+        <v/>
+      </c>
+      <c r="AM102" t="str">
+        <v/>
+      </c>
+      <c r="AN102" t="str">
+        <v/>
+      </c>
+      <c r="AO102" t="str">
+        <v/>
+      </c>
+      <c r="AP102" t="str">
+        <v/>
+      </c>
+      <c r="AQ102" t="str">
+        <v/>
+      </c>
+      <c r="AR102" t="str">
+        <v/>
+      </c>
+      <c r="AS102" t="str">
+        <v/>
+      </c>
+      <c r="AT102" t="str">
+        <v/>
+      </c>
+      <c r="AU102" t="str">
+        <v/>
+      </c>
+      <c r="AV102" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AV56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AV102"/>
   </ignoredErrors>
 </worksheet>
 </file>
